--- a/sriramModel-nelson-melancholic-patientID_60-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.947479020317675</v>
+        <v>6.947677432855323</v>
       </c>
       <c r="C2">
-        <v>6.947755808666114</v>
+        <v>6.942301529510083</v>
       </c>
       <c r="D2">
-        <v>6.943414406023085</v>
+        <v>6.948563527651003</v>
       </c>
       <c r="E2">
-        <v>6.944490286838303</v>
+        <v>6.926973722808598</v>
       </c>
       <c r="F2">
-        <v>6.948566211386021</v>
+        <v>6.948624363715033</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.181984592411073</v>
+        <v>7.181934639009698</v>
       </c>
       <c r="C3">
-        <v>7.182157391145019</v>
+        <v>7.171727726822424</v>
       </c>
       <c r="D3">
-        <v>7.1739640721738</v>
+        <v>7.183400021758318</v>
       </c>
       <c r="E3">
-        <v>7.177730796751344</v>
+        <v>7.144618198412429</v>
       </c>
       <c r="F3">
-        <v>7.183405390282107</v>
+        <v>7.183517524677283</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.404409426381273</v>
+        <v>7.403719075906489</v>
       </c>
       <c r="C4">
-        <v>7.404132386138079</v>
+        <v>7.389185932477393</v>
       </c>
       <c r="D4">
-        <v>7.392563927543921</v>
+        <v>7.405461806403307</v>
       </c>
       <c r="E4">
-        <v>7.400471583606165</v>
+        <v>7.353555109597202</v>
       </c>
       <c r="F4">
-        <v>7.4054696118094</v>
+        <v>7.405631817218306</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.615601547394019</v>
+        <v>7.61393063067288</v>
       </c>
       <c r="C5">
-        <v>7.614562972061882</v>
+        <v>7.595537205540276</v>
       </c>
       <c r="D5">
-        <v>7.600083219846224</v>
+        <v>7.615654972739512</v>
       </c>
       <c r="E5">
-        <v>7.613425148197557</v>
+        <v>7.554375632164731</v>
       </c>
       <c r="F5">
-        <v>7.615664684530624</v>
+        <v>7.615873216385305</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.816366690724267</v>
+        <v>7.813422158699331</v>
       </c>
       <c r="C6">
-        <v>7.814286212641763</v>
+        <v>7.791598833272475</v>
       </c>
       <c r="D6">
-        <v>7.797345946816738</v>
+        <v>7.814839778266813</v>
       </c>
       <c r="E6">
-        <v>7.817268907416124</v>
+        <v>7.747642593691744</v>
       </c>
       <c r="F6">
-        <v>7.814850552923586</v>
+        <v>7.81510194897495</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.00747058062495</v>
+        <v>8.003003329587363</v>
       </c>
       <c r="C7">
-        <v>8.004097704286558</v>
+        <v>7.978146572596642</v>
       </c>
       <c r="D7">
-        <v>7.985134615028869</v>
+        <v>8.003834331033264</v>
       </c>
       <c r="E7">
-        <v>8.012646899209136</v>
+        <v>7.933891757669624</v>
       </c>
       <c r="F7">
-        <v>8.003844991063083</v>
+        <v>8.004136107622172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.189640857560462</v>
+        <v>8.183442677860295</v>
       </c>
       <c r="C8">
-        <v>8.184753573970042</v>
+        <v>8.15591696953077</v>
       </c>
       <c r="D8">
-        <v>8.164192213784004</v>
+        <v>8.183416554594189</v>
       </c>
       <c r="E8">
-        <v>8.200171211047243</v>
+        <v>8.113633177235538</v>
       </c>
       <c r="F8">
-        <v>8.183425573245248</v>
+        <v>8.183753563938673</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.363569030786703</v>
+        <v>8.355469377912929</v>
       </c>
       <c r="C9">
-        <v>8.356972149826429</v>
+        <v>8.325609163069593</v>
       </c>
       <c r="D9">
-        <v>8.335223933554877</v>
+        <v>8.354325884814308</v>
       </c>
       <c r="E9">
-        <v>8.380423284595389</v>
+        <v>8.287351863010176</v>
       </c>
       <c r="F9">
-        <v>8.354331373069543</v>
+        <v>8.354693673184933</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.52991230210155</v>
+        <v>8.519775313600753</v>
       </c>
       <c r="C10">
-        <v>8.521435837353815</v>
+        <v>8.487886743632174</v>
       </c>
       <c r="D10">
-        <v>8.498899140851297</v>
+        <v>8.517265170626329</v>
       </c>
       <c r="E10">
-        <v>8.553955917431544</v>
+        <v>8.455509429614333</v>
       </c>
       <c r="F10">
-        <v>8.517264874925607</v>
+        <v>8.517659219734346</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.689295276451146</v>
+        <v>8.677017088147787</v>
       </c>
       <c r="C11">
-        <v>8.67879303982466</v>
+        <v>8.643379609625111</v>
       </c>
       <c r="D11">
-        <v>8.655853316528813</v>
+        <v>8.672902614603169</v>
       </c>
       <c r="E11">
-        <v>8.721294726261029</v>
+        <v>8.618545384456294</v>
       </c>
       <c r="F11">
-        <v>8.672893911460648</v>
+        <v>8.673318332713881</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.842311504420723</v>
+        <v>8.827817721319445</v>
       </c>
       <c r="C12">
-        <v>8.829659814919712</v>
+        <v>8.792685711567737</v>
       </c>
       <c r="D12">
-        <v>8.806689656105988</v>
+        <v>8.821873435811016</v>
       </c>
       <c r="E12">
-        <v>8.882939129721787</v>
+        <v>8.776878038492477</v>
       </c>
       <c r="F12">
-        <v>8.821853339746554</v>
+        <v>8.822306154909029</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.989525146703473</v>
+        <v>8.972768323510197</v>
       </c>
       <c r="C13">
-        <v>8.97462139007088</v>
+        <v>8.936372675966682</v>
       </c>
       <c r="D13">
-        <v>8.951980681550442</v>
+        <v>8.964781431104671</v>
       </c>
       <c r="E13">
-        <v>9.039363597137482</v>
+        <v>8.930905297588756</v>
       </c>
       <c r="F13">
-        <v>8.96474657566003</v>
+        <v>8.965226375671829</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.131472428301578</v>
+        <v>9.112429572398591</v>
       </c>
       <c r="C14">
-        <v>9.114233827104908</v>
+        <v>9.07497931338998</v>
       </c>
       <c r="D14">
-        <v>9.092270013509264</v>
+        <v>9.102200608146093</v>
       </c>
       <c r="E14">
-        <v>9.191018998997492</v>
+        <v>9.081005715098243</v>
       </c>
       <c r="F14">
-        <v>9.102147281104717</v>
+        <v>9.102652904929396</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.268662956541474</v>
+        <v>9.247333300288808</v>
       </c>
       <c r="C15">
-        <v>9.24902518357862</v>
+        <v>9.209017055800027</v>
       </c>
       <c r="D15">
-        <v>9.228073178437791</v>
+        <v>9.234676463274376</v>
       </c>
       <c r="E15">
-        <v>9.338333823108346</v>
+        <v>9.227539445003082</v>
       </c>
       <c r="F15">
-        <v>9.234600556932188</v>
+        <v>9.235131107897706</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.401581025307255</v>
+        <v>9.37798408692956</v>
       </c>
       <c r="C16">
-        <v>9.379496868899064</v>
+        <v>9.338971340317006</v>
       </c>
       <c r="D16">
-        <v>9.359879629122197</v>
+        <v>9.362727203965905</v>
       </c>
       <c r="E16">
-        <v>9.481715212488089</v>
+        <v>9.370849074095926</v>
       </c>
       <c r="F16">
-        <v>9.362624279807207</v>
+        <v>9.363179059981757</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.530686896592828</v>
+        <v>9.504860655862625</v>
       </c>
       <c r="C17">
-        <v>9.506125443255536</v>
+        <v>9.465302927874069</v>
       </c>
       <c r="D17">
-        <v>9.488154064868411</v>
+        <v>9.486845669017089</v>
       </c>
       <c r="E17">
-        <v>9.621549973739329</v>
+        <v>9.511260606593236</v>
       </c>
       <c r="F17">
-        <v>9.486710970092476</v>
+        <v>9.487289458585458</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.656417992941165</v>
+        <v>9.628417098733015</v>
       </c>
       <c r="C18">
-        <v>9.629363666838596</v>
+        <v>9.588449146772755</v>
       </c>
       <c r="D18">
-        <v>9.613337508552741</v>
+        <v>9.607500431298565</v>
       </c>
       <c r="E18">
-        <v>9.758205573872299</v>
+        <v>9.649084133700304</v>
       </c>
       <c r="F18">
-        <v>9.607328858416878</v>
+        <v>9.607930713576208</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.779189995256075</v>
+        <v>9.749083988121683</v>
       </c>
       <c r="C19">
-        <v>9.749641410556825</v>
+        <v>9.708825066035072</v>
       </c>
       <c r="D19">
-        <v>9.73584834250472</v>
+        <v>9.725136671390246</v>
       </c>
       <c r="E19">
-        <v>9.892031075105228</v>
+        <v>9.784614658434506</v>
       </c>
       <c r="F19">
-        <v>9.72492279087494</v>
+        <v>9.725547822026426</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.899397972443621</v>
+        <v>9.867269578380892</v>
       </c>
       <c r="C20">
-        <v>9.86736681450113</v>
+        <v>9.826824608918622</v>
       </c>
       <c r="D20">
-        <v>9.856083546367557</v>
+        <v>9.840177342026474</v>
       </c>
       <c r="E20">
-        <v>10.02335817303805</v>
+        <v>9.91813275590569</v>
       </c>
       <c r="F20">
-        <v>9.839915411734044</v>
+        <v>9.840563534076898</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.01741730921001</v>
+        <v>9.983361000436203</v>
       </c>
       <c r="C21">
-        <v>9.982927486317624</v>
+        <v>9.94282161315836</v>
       </c>
       <c r="D21">
-        <v>9.974419802660748</v>
+        <v>9.953024405377645</v>
       </c>
       <c r="E21">
-        <v>10.15250181724838</v>
+        <v>10.04990523572156</v>
       </c>
       <c r="F21">
-        <v>9.952708391792363</v>
+        <v>9.95337958857276</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.133604689356</v>
+        <v>10.09772531861412</v>
       </c>
       <c r="C22">
-        <v>10.09669145315663</v>
+        <v>10.05717083792278</v>
       </c>
       <c r="D22">
-        <v>10.09121447450547</v>
+        <v>10.06405983169249</v>
       </c>
       <c r="E22">
-        <v>10.27976129819707</v>
+        <v>10.18018582009897</v>
       </c>
       <c r="F22">
-        <v>10.0636834087065</v>
+        <v>10.06437771079144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.24829901919012</v>
+        <v>10.21071053074898</v>
       </c>
       <c r="C23">
-        <v>10.20900824354002</v>
+        <v>10.17020891801226</v>
       </c>
       <c r="D23">
-        <v>10.2068066545809</v>
+        <v>10.17364664786784</v>
       </c>
       <c r="E23">
-        <v>10.40542072275554</v>
+        <v>10.30921577653172</v>
       </c>
       <c r="F23">
-        <v>10.17320322489032</v>
+        <v>10.17392065653177</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.36182231793711</v>
+        <v>10.32264650290698</v>
       </c>
       <c r="C24">
-        <v>10.32020963729017</v>
+        <v>10.28225526835485</v>
       </c>
       <c r="D24">
-        <v>10.32151799462457</v>
+        <v>10.28212975710424</v>
       </c>
       <c r="E24">
-        <v>10.52974990396219</v>
+        <v>10.43722450664121</v>
       </c>
       <c r="F24">
-        <v>10.28161249706973</v>
+        <v>10.28235302701493</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.47448051738211</v>
+        <v>10.43384586679101</v>
       </c>
       <c r="C25">
-        <v>10.43061061579833</v>
+        <v>10.39361294180899</v>
       </c>
       <c r="D25">
-        <v>10.43565359389418</v>
+        <v>10.38983685659276</v>
       </c>
       <c r="E25">
-        <v>10.65300504980602</v>
+        <v>10.56443009850483</v>
       </c>
       <c r="F25">
-        <v>10.38923865619065</v>
+        <v>10.39000220088466</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10.58656425227891</v>
+        <v>10.54460488052448</v>
       </c>
       <c r="C26">
-        <v>10.54051024758491</v>
+        <v>10.50456944325919</v>
       </c>
       <c r="D26">
-        <v>10.54950282983977</v>
+        <v>10.49707936625008</v>
       </c>
       <c r="E26">
-        <v>10.77542935077213</v>
+        <v>10.69103988353465</v>
       </c>
       <c r="F26">
-        <v>10.49639292090899</v>
+        <v>10.49717923262332</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10.69834959769025</v>
+        <v>10.65520424839107</v>
       </c>
       <c r="C27">
-        <v>10.65019219374672</v>
+        <v>10.61539750172671</v>
       </c>
       <c r="D27">
-        <v>10.66334008695009</v>
+        <v>10.60415298648133</v>
       </c>
       <c r="E27">
-        <v>10.89725371163111</v>
+        <v>10.81725092455317</v>
       </c>
       <c r="F27">
-        <v>10.60337077292134</v>
+        <v>10.60417943242069</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10.81009879984296</v>
+        <v>10.76590989721983</v>
       </c>
       <c r="C28">
-        <v>10.75992569084132</v>
+        <v>10.72635579870099</v>
       </c>
       <c r="D28">
-        <v>10.77742552863082</v>
+        <v>10.71133862600256</v>
       </c>
       <c r="E28">
-        <v>11.01869728589059</v>
+        <v>10.94325048904733</v>
       </c>
       <c r="F28">
-        <v>10.71045292536262</v>
+        <v>10.71128328142792</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10.92206089973158</v>
+        <v>10.87697370467097</v>
       </c>
       <c r="C29">
-        <v>10.86996613968546</v>
+        <v>10.83768965641513</v>
       </c>
       <c r="D29">
-        <v>10.89200579356076</v>
+        <v>10.81890309903456</v>
       </c>
       <c r="E29">
-        <v>11.13996800966572</v>
+        <v>11.0692165158155</v>
       </c>
       <c r="F29">
-        <v>10.81790601523562</v>
+        <v>10.81875712805291</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>11.03447239089973</v>
+        <v>10.98863418541962</v>
       </c>
       <c r="C30">
-        <v>10.98055581240511</v>
+        <v>10.94963169949418</v>
       </c>
       <c r="D30">
-        <v>11.00731466783248</v>
+        <v>10.92709980121365</v>
       </c>
       <c r="E30">
-        <v>11.2612632547326</v>
+        <v>11.19531806393282</v>
       </c>
       <c r="F30">
-        <v>10.92598327786557</v>
+        <v>10.92685386004251</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>11.14755781794932</v>
+        <v>11.10111714614304</v>
       </c>
       <c r="C31">
-        <v>11.09192450021103</v>
+        <v>11.06240251753899</v>
       </c>
       <c r="D31">
-        <v>11.12357368046086</v>
+        <v>11.03616935275546</v>
       </c>
       <c r="E31">
-        <v>11.38277017181028</v>
+        <v>11.32171570398307</v>
       </c>
       <c r="F31">
-        <v>11.03492519182178</v>
+        <v>11.03581354679747</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>11.26153035642808</v>
+        <v>11.21463630542199</v>
       </c>
       <c r="C32">
-        <v>11.20429012098411</v>
+        <v>11.17621118023952</v>
       </c>
       <c r="D32">
-        <v>11.24099269633373</v>
+        <v>11.14634025535658</v>
       </c>
       <c r="E32">
-        <v>11.50466628609686</v>
+        <v>11.44856191447266</v>
       </c>
       <c r="F32">
-        <v>11.14496014543033</v>
+        <v>11.14586409708529</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11.37659232363021</v>
+        <v>11.32939387863721</v>
       </c>
       <c r="C33">
-        <v>11.3178592076815</v>
+        <v>11.29125581317281</v>
       </c>
       <c r="D33">
-        <v>11.35977047281936</v>
+        <v>11.25782940821566</v>
       </c>
       <c r="E33">
-        <v>11.62711991653897</v>
+        <v>11.57600145346028</v>
       </c>
       <c r="F33">
-        <v>11.25630494152469</v>
+        <v>11.25722176639212</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11.49293569523206</v>
+        <v>11.44558112830878</v>
       </c>
       <c r="C34">
-        <v>11.4328275195408</v>
+        <v>11.40772415275461</v>
       </c>
       <c r="D34">
-        <v>11.48009517008003</v>
+        <v>11.37084266136984</v>
       </c>
       <c r="E34">
-        <v>11.75029056426188</v>
+        <v>11.70417170633407</v>
       </c>
       <c r="F34">
-        <v>11.36916536060548</v>
+        <v>11.37009171431196</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>11.61074258636162</v>
+        <v>11.56337888081633</v>
       </c>
       <c r="C35">
-        <v>11.54938047851045</v>
+        <v>11.525793955831</v>
       </c>
       <c r="D35">
-        <v>11.60214481861333</v>
+        <v>11.48557536196017</v>
       </c>
       <c r="E35">
-        <v>11.87432940316133</v>
+        <v>11.8332029915478</v>
       </c>
       <c r="F35">
-        <v>11.48373671534115</v>
+        <v>11.48466854971906</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>11.7301856961373</v>
+        <v>11.68295801038211</v>
       </c>
       <c r="C36">
-        <v>11.667693643797</v>
+        <v>11.64563349814936</v>
       </c>
       <c r="D36">
-        <v>11.72608776806361</v>
+        <v>11.60221281752171</v>
       </c>
       <c r="E36">
-        <v>11.99937957425823</v>
+        <v>11.96321886653772</v>
       </c>
       <c r="F36">
-        <v>11.60020430037174</v>
+        <v>11.60113678747555</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>11.8514287121275</v>
+        <v>11.80447989038347</v>
       </c>
       <c r="C37">
-        <v>11.78793319742884</v>
+        <v>11.76740201502122</v>
       </c>
       <c r="D37">
-        <v>11.85208310157533</v>
+        <v>11.72093075122526</v>
       </c>
       <c r="E37">
-        <v>12.12557656084691</v>
+        <v>12.09433641732978</v>
       </c>
       <c r="F37">
-        <v>11.71874386298618</v>
+        <v>11.71967130838315</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>11.97462670218601</v>
+        <v>11.9280968129247</v>
       </c>
       <c r="C38">
-        <v>11.91025632483797</v>
+        <v>11.89125005164532</v>
       </c>
       <c r="D38">
-        <v>11.98028099554951</v>
+        <v>11.84189574024377</v>
       </c>
       <c r="E38">
-        <v>12.25304857785248</v>
+        <v>12.22666649390825</v>
       </c>
       <c r="F38">
-        <v>11.83952205755277</v>
+        <v>11.84043780145828</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>12.09992647925403</v>
+        <v>12.05395237487554</v>
       </c>
       <c r="C39">
-        <v>12.03481158591966</v>
+        <v>12.01731981027011</v>
       </c>
       <c r="D39">
-        <v>12.11082303265077</v>
+        <v>11.96526562430599</v>
       </c>
       <c r="E39">
-        <v>12.38191676845985</v>
+        <v>12.36031393621358</v>
       </c>
       <c r="F39">
-        <v>11.96269683968321</v>
+        <v>11.96359316457225</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>12.2274669153233</v>
+        <v>12.18218182584477</v>
       </c>
       <c r="C40">
-        <v>12.16173932060833</v>
+        <v>12.14574549184583</v>
       </c>
       <c r="D40">
-        <v>12.24384248261314</v>
+        <v>12.09118983164863</v>
       </c>
       <c r="E40">
-        <v>12.51229558188624</v>
+        <v>12.49537776447073</v>
       </c>
       <c r="F40">
-        <v>12.0884178158815</v>
+        <v>12.08928584199717</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>12.35737922310057</v>
+        <v>12.31291238111988</v>
       </c>
       <c r="C41">
-        <v>12.29117192156865</v>
+        <v>12.27665352949207</v>
       </c>
       <c r="D41">
-        <v>12.37946454437778</v>
+        <v>12.21980975219133</v>
       </c>
       <c r="E41">
-        <v>12.64429297976929</v>
+        <v>12.63195136279217</v>
       </c>
       <c r="F41">
-        <v>12.21682658359461</v>
+        <v>12.21765620184764</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12.48978720598243</v>
+        <v>12.44626349173257</v>
       </c>
       <c r="C42">
-        <v>12.42323414305815</v>
+        <v>12.41016279618113</v>
       </c>
       <c r="D42">
-        <v>12.5178065015349</v>
+        <v>12.35125898807259</v>
       </c>
       <c r="E42">
-        <v>12.77801067123865</v>
+        <v>12.77012256279012</v>
       </c>
       <c r="F42">
-        <v>12.34805704947093</v>
+        <v>12.34883679419458</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>12.6248074815937</v>
+        <v>12.58234706681054</v>
       </c>
       <c r="C43">
-        <v>12.55804332600335</v>
+        <v>12.54638478592832</v>
       </c>
       <c r="D43">
-        <v>12.65897781293845</v>
+        <v>12.48566362955802</v>
       </c>
       <c r="E43">
-        <v>12.91354428894003</v>
+        <v>12.90997372454587</v>
       </c>
       <c r="F43">
-        <v>12.48223571086357</v>
+        <v>12.48295263651527</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12.76254962027602</v>
+        <v>12.72126765468199</v>
       </c>
       <c r="C44">
-        <v>12.6957096306071</v>
+        <v>12.68542372160283</v>
       </c>
       <c r="D44">
-        <v>12.80308012495894</v>
+        <v>12.62314248830142</v>
       </c>
       <c r="E44">
-        <v>13.05098355505742</v>
+        <v>13.05158176974041</v>
       </c>
       <c r="F44">
-        <v>12.61948188521539</v>
+        <v>12.62012146222498</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12.90311624089611</v>
+        <v>12.86312254834632</v>
       </c>
       <c r="C45">
-        <v>12.83633622377415</v>
+        <v>12.82737651709329</v>
       </c>
       <c r="D45">
-        <v>12.9502072239954</v>
+        <v>12.76380726164036</v>
       </c>
       <c r="E45">
-        <v>13.1904124228244</v>
+        <v>13.19501811951591</v>
       </c>
       <c r="F45">
-        <v>12.75990789378485</v>
+        <v>12.76045390481247</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>13.04660302817651</v>
+        <v>13.00800182053807</v>
       </c>
       <c r="C46">
-        <v>12.98001939663771</v>
+        <v>12.97233276908684</v>
       </c>
       <c r="D46">
-        <v>13.10044483253902</v>
+        <v>12.90776263308883</v>
       </c>
       <c r="E46">
-        <v>13.33190914809893</v>
+        <v>13.34034853765508</v>
       </c>
       <c r="F46">
-        <v>12.90361918903476</v>
+        <v>12.90405362603363</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>13.19309871119835</v>
+        <v>13.15598826620569</v>
       </c>
       <c r="C47">
-        <v>13.12684861143165</v>
+        <v>13.12037443902204</v>
       </c>
       <c r="D47">
-        <v>13.25387019994893</v>
+        <v>13.05510630894211</v>
       </c>
       <c r="E47">
-        <v>13.47554630361312</v>
+        <v>13.48763293256755</v>
       </c>
       <c r="F47">
-        <v>13.05071442896263</v>
+        <v>13.05101738760041</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>13.34268487043205</v>
+        <v>13.30715722967929</v>
       </c>
       <c r="C48">
-        <v>13.27690648285557</v>
+        <v>13.27157551159394</v>
       </c>
       <c r="D48">
-        <v>13.41055153102284</v>
+        <v>13.20592897258497</v>
       </c>
       <c r="E48">
-        <v>13.62139073080803</v>
+        <v>13.63692488887071</v>
       </c>
       <c r="F48">
-        <v>13.20128546977138</v>
+        <v>13.201435051158</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>13.49543560250426</v>
+        <v>13.46157629525083</v>
       </c>
       <c r="C49">
-        <v>13.43026867097144</v>
+        <v>13.42600146086442</v>
       </c>
       <c r="D49">
-        <v>13.57054721436508</v>
+        <v>13.36031412595464</v>
       </c>
       <c r="E49">
-        <v>13.76950340694543</v>
+        <v>13.78827113141401</v>
       </c>
       <c r="F49">
-        <v>13.35541726676166</v>
+        <v>13.35538948122549</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>13.65141697055223</v>
+        <v>13.619304769174</v>
       </c>
       <c r="C50">
-        <v>13.58700366513723</v>
+        <v>13.58370842417391</v>
       </c>
       <c r="D50">
-        <v>13.73390470687006</v>
+        <v>13.51833778055382</v>
       </c>
       <c r="E50">
-        <v>13.91993921870423</v>
+        <v>13.9417107729692</v>
       </c>
       <c r="F50">
-        <v>13.51318760535506</v>
+        <v>13.5129563279657</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>13.81068629210025</v>
+        <v>13.78039296762537</v>
       </c>
       <c r="C51">
-        <v>13.74717237653782</v>
+        <v>13.74474202950329</v>
       </c>
       <c r="D51">
-        <v>13.90065897124319</v>
+        <v>13.68006794884169</v>
       </c>
       <c r="E51">
-        <v>14.07274659155907</v>
+        <v>14.09727426100461</v>
       </c>
       <c r="F51">
-        <v>13.67466666409368</v>
+        <v>13.67420363308437</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>13.97329106798008</v>
+        <v>13.9448810561357</v>
       </c>
       <c r="C52">
-        <v>13.91082750405775</v>
+        <v>13.90913580311802</v>
       </c>
       <c r="D52">
-        <v>14.07083041654659</v>
+        <v>13.84556386441016</v>
       </c>
       <c r="E52">
-        <v>14.2279669315582</v>
+        <v>14.25498195401042</v>
       </c>
       <c r="F52">
-        <v>13.839916341232</v>
+        <v>13.83919116311702</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>14.1392674400298</v>
+        <v>14.11279751485243</v>
       </c>
       <c r="C53">
-        <v>14.07801265177788</v>
+        <v>14.07690911941561</v>
       </c>
       <c r="D53">
-        <v>14.24442203554338</v>
+        <v>14.01487486101445</v>
       </c>
       <c r="E53">
-        <v>14.38563386922095</v>
+        <v>14.41484226235724</v>
       </c>
       <c r="F53">
-        <v>14.0089892349978</v>
+        <v>14.007969467949</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>14.30863811558442</v>
+        <v>14.2841570892897</v>
       </c>
       <c r="C54">
-        <v>14.24876101302689</v>
+        <v>14.24806419772806</v>
       </c>
       <c r="D54">
-        <v>14.42141566789253</v>
+        <v>14.18803866980956</v>
       </c>
       <c r="E54">
-        <v>14.54577213687303</v>
+        <v>14.57684924854093</v>
       </c>
       <c r="F54">
-        <v>14.18192710294589</v>
+        <v>14.1805784789113</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>14.48140935140774</v>
+        <v>14.45895789677023</v>
       </c>
       <c r="C55">
-        <v>14.42309344268623</v>
+        <v>14.4225824147144</v>
       </c>
       <c r="D55">
-        <v>14.60176727230004</v>
+        <v>14.36507884558284</v>
       </c>
       <c r="E55">
-        <v>14.708395937035</v>
+        <v>14.7409795559785</v>
       </c>
       <c r="F55">
-        <v>14.35875861206764</v>
+        <v>14.35704542562549</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>14.65756702203198</v>
+        <v>14.63717748622208</v>
       </c>
       <c r="C56">
-        <v>14.60101573457313</v>
+        <v>14.60041950547943</v>
       </c>
       <c r="D56">
-        <v>14.7854006041076</v>
+        <v>14.54600135103554</v>
       </c>
       <c r="E56">
-        <v>14.87350690014326</v>
+        <v>14.9071885262015</v>
       </c>
       <c r="F56">
-        <v>14.53949593827171</v>
+        <v>14.53738180063427</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>14.83707131618347</v>
+        <v>14.81876753762006</v>
       </c>
       <c r="C57">
-        <v>14.78251456627494</v>
+        <v>14.78149925069097</v>
       </c>
       <c r="D57">
-        <v>14.97219927540902</v>
+        <v>14.73078935974497</v>
       </c>
       <c r="E57">
-        <v>15.04109119391659</v>
+        <v>15.0754053716994</v>
       </c>
       <c r="F57">
-        <v>14.72412991884103</v>
+        <v>14.72157876329222</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>15.01984962600667</v>
+        <v>15.00364691615239</v>
       </c>
       <c r="C58">
-        <v>14.9675517814478</v>
+        <v>14.96570560323361</v>
       </c>
       <c r="D58">
-        <v>15.16199682922896</v>
+        <v>14.91939570981054</v>
       </c>
       <c r="E58">
-        <v>15.21111551271678</v>
+        <v>15.2455272983922</v>
       </c>
       <c r="F58">
-        <v>14.91262291898047</v>
+        <v>14.90960061544459</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>15.20578714163675</v>
+        <v>15.19169246210619</v>
       </c>
       <c r="C59">
-        <v>15.15605616658728</v>
+        <v>15.15287292056919</v>
       </c>
       <c r="D59">
-        <v>15.3545648266598</v>
+        <v>15.11173238901388</v>
       </c>
       <c r="E59">
-        <v>15.38352172940425</v>
+        <v>15.41741253358745</v>
       </c>
       <c r="F59">
-        <v>15.1048984469689</v>
+        <v>15.10137523020917</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15.39471496407236</v>
+        <v>15.38272723995117</v>
       </c>
       <c r="C60">
-        <v>15.34791160892112</v>
+        <v>15.34277428906326</v>
       </c>
       <c r="D60">
-        <v>15.5495991749693</v>
+        <v>15.30765557267779</v>
       </c>
       <c r="E60">
-        <v>15.55821953789005</v>
+        <v>15.59087233572105</v>
       </c>
       <c r="F60">
-        <v>15.30082642761422</v>
+        <v>15.2967802062706</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>15.58639528885123</v>
+        <v>15.57650589120746</v>
       </c>
       <c r="C61">
-        <v>15.54294054630547</v>
+        <v>15.53510824791785</v>
       </c>
       <c r="D61">
-        <v>15.74670533953343</v>
+        <v>15.50694538425916</v>
       </c>
       <c r="E61">
-        <v>15.73507687214827</v>
+        <v>15.76566231225852</v>
       </c>
       <c r="F61">
-        <v>15.5002028919112</v>
+        <v>15.49562352825132</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>15.78050400921569</v>
+        <v>15.77269748787903</v>
       </c>
       <c r="C62">
-        <v>15.74088164158058</v>
+        <v>15.72948441360895</v>
       </c>
       <c r="D62">
-        <v>15.94538414855871</v>
+        <v>15.70927992185067</v>
       </c>
       <c r="E62">
-        <v>15.91390772966528</v>
+        <v>15.94147320220864</v>
       </c>
       <c r="F62">
-        <v>15.70272323535223</v>
+        <v>15.69761765110312</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>15.97661168369643</v>
+        <v>15.97086625990431</v>
       </c>
       <c r="C63">
-        <v>15.94136119522214</v>
+        <v>15.92540961807688</v>
       </c>
       <c r="D63">
-        <v>16.14502081763119</v>
+        <v>15.91420439126753</v>
       </c>
       <c r="E63">
-        <v>16.09445682405057</v>
+        <v>16.11792303524888</v>
       </c>
       <c r="F63">
-        <v>15.90794995002747</v>
+        <v>15.90234704006376</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>16.17416511406024</v>
+        <v>16.17045280984302</v>
       </c>
       <c r="C64">
-        <v>16.14386000183112</v>
+        <v>16.12227711518324</v>
       </c>
       <c r="D64">
-        <v>16.3448802324396</v>
+        <v>16.12109907330248</v>
       </c>
       <c r="E64">
-        <v>16.27638181524229</v>
+        <v>16.29455139196909</v>
       </c>
       <c r="F64">
-        <v>16.11527808017264</v>
+        <v>16.10923214144331</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>16.37247366014173</v>
+        <v>16.37075984159901</v>
       </c>
       <c r="C65">
-        <v>16.34768118684987</v>
+        <v>16.31936164125387</v>
       </c>
       <c r="D65">
-        <v>16.54411246062768</v>
+        <v>16.32915329330585</v>
       </c>
       <c r="E65">
-        <v>16.45923449950043</v>
+        <v>16.47081713940407</v>
       </c>
       <c r="F65">
-        <v>16.32390550329696</v>
+        <v>16.31749664996922</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>16.57070494558935</v>
+        <v>16.57094655595076</v>
       </c>
       <c r="C66">
-        <v>16.55192796323511</v>
+        <v>16.51582414862039</v>
       </c>
       <c r="D66">
-        <v>16.74177138762616</v>
+        <v>16.53735599375225</v>
       </c>
       <c r="E66">
-        <v>16.64244385758347</v>
+        <v>16.64610229274928</v>
       </c>
       <c r="F66">
-        <v>16.53281936618239</v>
+        <v>16.52614935720671</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>16.76789576517223</v>
+        <v>16.77003842703595</v>
       </c>
       <c r="C67">
-        <v>16.75550461925452</v>
+        <v>16.71072928976121</v>
       </c>
       <c r="D67">
-        <v>16.93684716925407</v>
+        <v>16.74451426406881</v>
       </c>
       <c r="E67">
-        <v>16.82530616427371</v>
+        <v>16.8197228906761</v>
       </c>
       <c r="F67">
-        <v>16.74081093924428</v>
+        <v>16.73399440536906</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>16.96298183316075</v>
+        <v>16.96695620753509</v>
       </c>
       <c r="C68">
-        <v>16.95715157380607</v>
+        <v>16.90307657101171</v>
       </c>
       <c r="D68">
-        <v>17.12831007332581</v>
+        <v>16.9493051715237</v>
       </c>
       <c r="E68">
-        <v>17.00698769797993</v>
+        <v>16.99094769174414</v>
       </c>
       <c r="F68">
-        <v>16.94652706261474</v>
+        <v>16.93967968876181</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>17.15484581545521</v>
+        <v>17.16056421521809</v>
       </c>
       <c r="C69">
-        <v>17.15551708473169</v>
+        <v>17.09184318686479</v>
       </c>
       <c r="D69">
-        <v>17.31515992513717</v>
+        <v>17.15035762432154</v>
       </c>
       <c r="E69">
-        <v>17.1865455434196</v>
+        <v>17.1590234618679</v>
       </c>
       <c r="F69">
-        <v>17.14855507236591</v>
+        <v>17.14178186042753</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>17.34237773090436</v>
+        <v>17.3497325190614</v>
       </c>
       <c r="C70">
-        <v>17.34925403196553</v>
+        <v>17.27603317039719</v>
       </c>
       <c r="D70">
-        <v>17.49647360230009</v>
+        <v>17.34634808902206</v>
       </c>
       <c r="E70">
-        <v>17.36296838427921</v>
+        <v>17.32320486669807</v>
       </c>
       <c r="F70">
-        <v>17.34552503632239</v>
+        <v>17.33891182130781</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>17.52453734307235</v>
+        <v>17.53340172488868</v>
       </c>
       <c r="C71">
-        <v>17.53711934297537</v>
+        <v>17.4547253314379</v>
       </c>
       <c r="D71">
-        <v>17.67144351936229</v>
+        <v>17.53608874678119</v>
       </c>
       <c r="E71">
-        <v>17.53523317607728</v>
+        <v>17.48278492367087</v>
       </c>
       <c r="F71">
-        <v>17.53620546024406</v>
+        <v>17.52981531951437</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.70040735424218</v>
+        <v>17.71063883593213</v>
       </c>
       <c r="C72">
-        <v>17.7180527207041</v>
+        <v>17.62711273263244</v>
       </c>
       <c r="D72">
-        <v>17.8394025928843</v>
+        <v>17.71859012915884</v>
       </c>
       <c r="E72">
-        <v>17.7023677974008</v>
+        <v>17.63712208062648</v>
       </c>
       <c r="F72">
-        <v>17.71957196017422</v>
+        <v>17.71344613663684</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>17.86922931317815</v>
+        <v>17.88067523927226</v>
       </c>
       <c r="C73">
-        <v>17.89122089273409</v>
+        <v>17.79252877873914</v>
       </c>
       <c r="D73">
-        <v>17.99983464990714</v>
+        <v>17.89309074062063</v>
       </c>
       <c r="E73">
-        <v>17.86350742862964</v>
+        <v>17.7856615096925</v>
       </c>
       <c r="F73">
-        <v>17.89483976772268</v>
+        <v>17.88900144039176</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>18.03041953386134</v>
+        <v>18.04292352905252</v>
       </c>
       <c r="C74">
-        <v>18.05602690868646</v>
+        <v>17.95045850465574</v>
       </c>
       <c r="D74">
-        <v>18.15237198678514</v>
+        <v>18.0590565793409</v>
       </c>
       <c r="E74">
-        <v>18.01793460423646</v>
+        <v>17.92794801972514</v>
       </c>
       <c r="F74">
-        <v>18.06146319726001</v>
+        <v>18.05592222351361</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>18.18356711328774</v>
+        <v>18.19697561783735</v>
       </c>
       <c r="C75">
-        <v>18.21209301520464</v>
+        <v>18.10053659910572</v>
       </c>
       <c r="D75">
-        <v>18.29678371238272</v>
+        <v>18.21615979015784</v>
       </c>
       <c r="E75">
-        <v>18.16509857957237</v>
+        <v>18.06363097196703</v>
       </c>
       <c r="F75">
-        <v>18.21911235883485</v>
+        <v>18.21386961111964</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>18.32841923161077</v>
+        <v>18.34258588778272</v>
       </c>
       <c r="C76">
-        <v>18.35922891325561</v>
+        <v>18.24253572444847</v>
       </c>
       <c r="D76">
-        <v>18.43295858893491</v>
+        <v>18.36424671445069</v>
       </c>
       <c r="E76">
-        <v>18.30461558861323</v>
+        <v>18.19246203822551</v>
       </c>
       <c r="F76">
-        <v>18.36763836110251</v>
+        <v>18.36268913769201</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>18.46485929152625</v>
+        <v>18.47964883489245</v>
       </c>
       <c r="C77">
-        <v>18.49739506950568</v>
+        <v>18.37634909718578</v>
       </c>
       <c r="D77">
-        <v>18.560885649574</v>
+        <v>18.50330302266475</v>
       </c>
       <c r="E77">
-        <v>18.43625502074625</v>
+        <v>18.31428768188112</v>
       </c>
       <c r="F77">
-        <v>18.5070358831612</v>
+        <v>18.50237234007528</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>18.59288258538843</v>
+        <v>18.60817276973117</v>
       </c>
       <c r="C78">
-        <v>18.62666755818196</v>
+        <v>18.50197065944704</v>
       </c>
       <c r="D78">
-        <v>18.68063496382697</v>
+        <v>18.63342115808726</v>
       </c>
       <c r="E78">
-        <v>18.55991785926692</v>
+        <v>18.42903840003378</v>
       </c>
       <c r="F78">
-        <v>18.63740852148518</v>
+        <v>18.63302116311713</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>18.71257271166767</v>
+        <v>18.72825521269617</v>
       </c>
       <c r="C79">
-        <v>18.74720756779241</v>
+        <v>18.6194754114588</v>
       </c>
       <c r="D79">
-        <v>18.79233999412983</v>
+        <v>18.75477233813956</v>
       </c>
       <c r="E79">
-        <v>18.67561237495716</v>
+        <v>18.5367164399789</v>
       </c>
       <c r="F79">
-        <v>18.75893928921398</v>
+        <v>18.75481788669919</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>18.82408054611743</v>
+        <v>18.84006085097278</v>
       </c>
       <c r="C80">
-        <v>18.85923651619075</v>
+        <v>18.72900138953229</v>
       </c>
       <c r="D80">
-        <v>18.8961822233406</v>
+        <v>18.86758355309501</v>
       </c>
       <c r="E80">
-        <v>18.78343065942306</v>
+        <v>18.63738333933321</v>
       </c>
       <c r="F80">
-        <v>18.87186665175685</v>
+        <v>18.86800078328677</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>18.92760646685408</v>
+        <v>18.94380313087169</v>
       </c>
       <c r="C81">
-        <v>18.96301640143366</v>
+        <v>18.83073406840078</v>
       </c>
       <c r="D81">
-        <v>18.99237829870878</v>
+        <v>18.97211982797391</v>
       </c>
       <c r="E81">
-        <v>18.88352775312275</v>
+        <v>18.73114818190196</v>
       </c>
       <c r="F81">
-        <v>18.97646611429743</v>
+        <v>18.97284539181707</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>19.02338564481379</v>
+        <v>19.03972919344919</v>
       </c>
       <c r="C82">
-        <v>19.05883513496163</v>
+        <v>18.92489333731502</v>
       </c>
       <c r="D82">
-        <v>19.08116936226618</v>
+        <v>19.06867055757725</v>
       </c>
       <c r="E82">
-        <v>18.97610429156482</v>
+        <v>18.81815709256746</v>
       </c>
       <c r="F82">
-        <v>19.07303642464902</v>
+        <v>19.06965078597262</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>19.11167660134062</v>
+        <v>19.1281084899623</v>
       </c>
       <c r="C83">
-        <v>19.14699587891763</v>
+        <v>19.01172268183462</v>
       </c>
       <c r="D83">
-        <v>19.16281256407828</v>
+        <v>19.15753914613227</v>
       </c>
       <c r="E83">
-        <v>19.06139232068328</v>
+        <v>18.89858410483379</v>
       </c>
       <c r="F83">
-        <v>19.16188927624382</v>
+        <v>19.1587288567559</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>19.19275246744026</v>
+        <v>19.20922374280278</v>
       </c>
       <c r="C84">
-        <v>19.22780864062716</v>
+        <v>19.09148084743473</v>
       </c>
       <c r="D84">
-        <v>19.23757471365876</v>
+        <v>19.23903542050301</v>
       </c>
       <c r="E84">
-        <v>19.13964431592553</v>
+        <v>18.97262343740174</v>
       </c>
       <c r="F84">
-        <v>19.24334151719993</v>
+        <v>19.24039675604164</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>19.2668941070511</v>
+        <v>19.28336412466607</v>
       </c>
       <c r="C85">
-        <v>19.30158451129975</v>
+        <v>19.16443554176854</v>
       </c>
       <c r="D85">
-        <v>19.30572720527034</v>
+        <v>19.31347013780703</v>
       </c>
       <c r="E85">
-        <v>19.21112510265361</v>
+        <v>19.04048333047029</v>
       </c>
       <c r="F85">
-        <v>19.31770988029571</v>
+        <v>19.3149715143143</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>19.33438492154437</v>
+        <v>19.35082017621116</v>
       </c>
       <c r="C86">
-        <v>19.36863158610082</v>
+        <v>19.23085829435494</v>
       </c>
       <c r="D86">
-        <v>19.36754195836916</v>
+        <v>19.38115105114853</v>
       </c>
       <c r="E86">
-        <v>19.27610533527574</v>
+        <v>19.10238089520047</v>
       </c>
       <c r="F86">
-        <v>19.38530710757766</v>
+        <v>19.3827661706476</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>19.39550704546352</v>
+        <v>19.41188021341098</v>
       </c>
       <c r="C87">
-        <v>19.4292520804188</v>
+        <v>19.29102057126921</v>
       </c>
       <c r="D87">
-        <v>19.42328845575062</v>
+        <v>19.44238009287483</v>
       </c>
       <c r="E87">
-        <v>19.334856729073</v>
+        <v>19.1585381101206</v>
       </c>
       <c r="F87">
-        <v>19.44643930187733</v>
+        <v>19.44408709672578</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>19.45053863529666</v>
+        <v>19.46682761642729</v>
       </c>
       <c r="C88">
-        <v>19.48374033578565</v>
+        <v>19.34519091793602</v>
       </c>
       <c r="D88">
-        <v>19.47323164528874</v>
+        <v>19.49745145690623</v>
       </c>
       <c r="E88">
-        <v>19.38764875897507</v>
+        <v>19.20917862357536</v>
       </c>
       <c r="F88">
-        <v>19.5014040651559</v>
+        <v>19.49923216741294</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>19.49975187270388</v>
+        <v>19.51593897286235</v>
       </c>
       <c r="C89">
-        <v>19.53238152995353</v>
+        <v>19.39363294775721</v>
       </c>
       <c r="D89">
-        <v>19.51763038155323</v>
+        <v>19.54665031705472</v>
       </c>
       <c r="E89">
-        <v>19.43474617569728</v>
+        <v>19.25452522951143</v>
       </c>
       <c r="F89">
-        <v>19.55048936630398</v>
+        <v>19.54848964607977</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>19.54341154117981</v>
+        <v>19.55948276513057</v>
       </c>
       <c r="C90">
-        <v>19.57545084750123</v>
+        <v>19.43660385366159</v>
       </c>
       <c r="D90">
-        <v>19.55673628804448</v>
+        <v>19.59025201058339</v>
       </c>
       <c r="E90">
-        <v>19.47640728367736</v>
+        <v>19.29479804983919</v>
       </c>
       <c r="F90">
-        <v>19.59397283738258</v>
+        <v>19.5921374424967</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>19.58177412340207</v>
+        <v>19.59771857680552</v>
       </c>
       <c r="C91">
-        <v>19.61321304683756</v>
+        <v>19.47435332495341</v>
       </c>
       <c r="D91">
-        <v>19.59079298213661</v>
+        <v>19.62852158048319</v>
       </c>
       <c r="E91">
-        <v>19.51288272260076</v>
+        <v>19.33021312820822</v>
       </c>
       <c r="F91">
-        <v>19.63212138053297</v>
+        <v>19.63044272646175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>19.61508717400079</v>
+        <v>19.63089658002916</v>
       </c>
       <c r="C92">
-        <v>19.64592227104938</v>
+        <v>19.50712286906667</v>
       </c>
       <c r="D92">
-        <v>19.62003561904823</v>
+        <v>19.66171355020787</v>
       </c>
       <c r="E92">
-        <v>19.54441475537806</v>
+        <v>19.36098136046441</v>
       </c>
       <c r="F92">
-        <v>19.66519101274071</v>
+        <v>19.66366178989433</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>19.64358900155204</v>
+        <v>19.65925725435847</v>
       </c>
       <c r="C93">
-        <v>19.67382201118926</v>
+        <v>19.53514539595579</v>
       </c>
       <c r="D93">
-        <v>19.64469058202181</v>
+        <v>19.69007186734418</v>
       </c>
       <c r="E93">
-        <v>19.57123681707744</v>
+        <v>19.38730775603682</v>
       </c>
       <c r="F93">
-        <v>19.6934269056123</v>
+        <v>19.69204008029805</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>19.66750852747415</v>
+        <v>19.6830313120059</v>
       </c>
       <c r="C94">
-        <v>19.69714522578011</v>
+        <v>19.55864495040351</v>
       </c>
       <c r="D94">
-        <v>19.66497538932411</v>
+        <v>19.71383003812426</v>
       </c>
       <c r="E94">
-        <v>19.5935732521103</v>
+        <v>19.40939093077241</v>
       </c>
       <c r="F94">
-        <v>19.71706353591157</v>
+        <v>19.71581234253618</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>19.68706526451325</v>
+        <v>19.70243974511025</v>
       </c>
       <c r="C95">
-        <v>19.71611455280571</v>
+        <v>19.57783666727665</v>
       </c>
       <c r="D95">
-        <v>19.68109870322243</v>
+        <v>19.73321132981988</v>
       </c>
       <c r="E95">
-        <v>19.61163925264116</v>
+        <v>19.42742276905073</v>
       </c>
       <c r="F95">
-        <v>19.73632491546983</v>
+        <v>19.73520282753903</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>19.70246940632117</v>
+        <v>19.71769397784858</v>
       </c>
       <c r="C96">
-        <v>19.73094257867923</v>
+        <v>19.59292680050902</v>
       </c>
       <c r="D96">
-        <v>19.69326041258677</v>
+        <v>19.74842898841532</v>
       </c>
       <c r="E96">
-        <v>19.62564091878951</v>
+        <v>19.44158823715694</v>
       </c>
       <c r="F96">
-        <v>19.75142485841537</v>
+        <v>19.75042561691387</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>19.71392200315875</v>
+        <v>19.72899605761672</v>
       </c>
       <c r="C97">
-        <v>19.74183212732941</v>
+        <v>19.60411283582601</v>
       </c>
       <c r="D97">
-        <v>19.70165178513988</v>
+        <v>19.75968654365433</v>
       </c>
       <c r="E97">
-        <v>19.63577539940059</v>
+        <v>19.45206530169149</v>
       </c>
       <c r="F97">
-        <v>19.7625673403618</v>
+        <v>19.76168495779812</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>19.72161518426111</v>
+        <v>19.73653891060268</v>
       </c>
       <c r="C98">
-        <v>19.74897662082172</v>
+        <v>19.61158365986746</v>
       </c>
       <c r="D98">
-        <v>19.70645567177054</v>
+        <v>19.7671781429321</v>
       </c>
       <c r="E98">
-        <v>19.64223108948467</v>
+        <v>19.45902493432108</v>
       </c>
       <c r="F98">
-        <v>19.76994685362586</v>
+        <v>19.76917560063533</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>19.72573241687621</v>
+        <v>19.74050664967081</v>
       </c>
       <c r="C99">
-        <v>19.75256043481149</v>
+        <v>19.61551978243467</v>
       </c>
       <c r="D99">
-        <v>19.70784674687195</v>
+        <v>19.77108889667298</v>
       </c>
       <c r="E99">
-        <v>19.6451878526761</v>
+        <v>19.46263118038604</v>
       </c>
       <c r="F99">
-        <v>19.77374876978362</v>
+        <v>19.77308313831203</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>19.72644877385956</v>
+        <v>19.74107489245734</v>
       </c>
       <c r="C100">
-        <v>19.75275926320031</v>
+        <v>19.61609358768438</v>
       </c>
       <c r="D100">
-        <v>19.70599177314214</v>
+        <v>19.7715952280078</v>
       </c>
       <c r="E100">
-        <v>19.64481732460884</v>
+        <v>19.4630412483464</v>
       </c>
       <c r="F100">
-        <v>19.77414967689635</v>
+        <v>19.77358440042083</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.72393124544593</v>
+        <v>19.73841106349469</v>
       </c>
       <c r="C101">
-        <v>19.749740452394</v>
+        <v>19.613469605629</v>
       </c>
       <c r="D101">
-        <v>19.70104986450352</v>
+        <v>19.76886522748071</v>
       </c>
       <c r="E101">
-        <v>19.6412832030867</v>
+        <v>19.4604056846974</v>
       </c>
       <c r="F101">
-        <v>19.77131777343394</v>
+        <v>19.77084781478166</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>19.71833904777891</v>
+        <v>19.73267470344801</v>
       </c>
       <c r="C102">
-        <v>19.74366337142128</v>
+        <v>19.60780478205541</v>
       </c>
       <c r="D102">
-        <v>19.69317276348286</v>
+        <v>19.76305900079805</v>
       </c>
       <c r="E102">
-        <v>19.63474155182525</v>
+        <v>19.45486855050492</v>
       </c>
       <c r="F102">
-        <v>19.76541322508434</v>
+        <v>19.76503377160007</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>19.7098239386461</v>
+        <v>19.72401781431563</v>
       </c>
       <c r="C103">
-        <v>19.73467976168487</v>
+        <v>19.59924876483322</v>
       </c>
       <c r="D103">
-        <v>19.68250514995017</v>
+        <v>19.75432900662664</v>
       </c>
       <c r="E103">
-        <v>19.62534107596199</v>
+        <v>19.44656762522143</v>
       </c>
       <c r="F103">
-        <v>19.75658852297515</v>
+        <v>19.75629497525095</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>19.69853051809723</v>
+        <v>19.71258517499185</v>
       </c>
       <c r="C104">
-        <v>19.72293408113432</v>
+        <v>19.58794421062321</v>
       </c>
       <c r="D104">
-        <v>19.66918491852401</v>
+        <v>19.742820411015</v>
       </c>
       <c r="E104">
-        <v>19.61322344347962</v>
+        <v>19.4356345917878</v>
       </c>
       <c r="F104">
-        <v>19.74498882741416</v>
+        <v>19.74477679679391</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>19.6845965150697</v>
+        <v>19.69851465733505</v>
       </c>
       <c r="C105">
-        <v>19.70856383482389</v>
+        <v>19.57402706936433</v>
       </c>
       <c r="D105">
-        <v>19.65334346559581</v>
+        <v>19.72867141655007</v>
       </c>
       <c r="E105">
-        <v>19.59852358290969</v>
+        <v>19.42219524245785</v>
       </c>
       <c r="F105">
-        <v>19.73075230159712</v>
+        <v>19.73061760201715</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>19.66815310780159</v>
+        <v>19.68193753009812</v>
       </c>
       <c r="C106">
-        <v>19.69169988790599</v>
+        <v>19.55762686708788</v>
       </c>
       <c r="D106">
-        <v>19.63510596200439</v>
+        <v>19.71201357781034</v>
       </c>
       <c r="E106">
-        <v>19.58136998135824</v>
+        <v>19.40636971295935</v>
       </c>
       <c r="F106">
-        <v>19.71401043835694</v>
+        <v>19.71394907403016</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>19.64932520563357</v>
+        <v>19.66297876236246</v>
       </c>
       <c r="C107">
-        <v>19.67246678982291</v>
+        <v>19.538866968805</v>
       </c>
       <c r="D107">
-        <v>19.61459161141594</v>
+        <v>19.69297210208635</v>
       </c>
       <c r="E107">
-        <v>19.56188497123808</v>
+        <v>19.38827269451831</v>
       </c>
       <c r="F107">
-        <v>19.69488838272824</v>
+        <v>19.6948965354821</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>19.62823173359788</v>
+        <v>19.64175729851361</v>
       </c>
       <c r="C108">
-        <v>19.65098304222648</v>
+        <v>19.51786486011193</v>
       </c>
       <c r="D108">
-        <v>19.59191393630216</v>
+        <v>19.67166615267035</v>
       </c>
       <c r="E108">
-        <v>19.54018500268975</v>
+        <v>19.36801365184029</v>
       </c>
       <c r="F108">
-        <v>19.6735051927754</v>
+        <v>19.67357923753316</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>19.60498590438769</v>
+        <v>19.61838636736971</v>
       </c>
       <c r="C109">
-        <v>19.62736144172504</v>
+        <v>19.49473241214393</v>
       </c>
       <c r="D109">
-        <v>19.567181023221</v>
+        <v>19.64820911219543</v>
       </c>
       <c r="E109">
-        <v>19.51638092486928</v>
+        <v>19.34569703577902</v>
       </c>
       <c r="F109">
-        <v>19.64997419008962</v>
+        <v>19.65011065527601</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>19.57969547262769</v>
+        <v>19.59297370488796</v>
       </c>
       <c r="C110">
-        <v>19.60170927816186</v>
+        <v>19.46957613401418</v>
       </c>
       <c r="D110">
-        <v>19.54049577321708</v>
+        <v>19.62270887932662</v>
       </c>
       <c r="E110">
-        <v>19.49057822203824</v>
+        <v>19.3214224922594</v>
       </c>
       <c r="F110">
-        <v>19.62440317307749</v>
+        <v>19.62459876197599</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>19.55246301057979</v>
+        <v>19.56562184644313</v>
       </c>
       <c r="C111">
-        <v>19.57412865460678</v>
+        <v>19.44249741911586</v>
       </c>
       <c r="D111">
-        <v>19.51195614346709</v>
+        <v>19.59526811979475</v>
       </c>
       <c r="E111">
-        <v>19.46287731189686</v>
+        <v>19.29528506215043</v>
       </c>
       <c r="F111">
-        <v>19.59689470332755</v>
+        <v>19.59714627050127</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>19.5233861170558</v>
+        <v>19.5364283709285</v>
       </c>
       <c r="C112">
-        <v>19.54471671144942</v>
+        <v>19.41359278082835</v>
       </c>
       <c r="D112">
-        <v>19.4816553663258</v>
+        <v>19.56598452094582</v>
       </c>
       <c r="E112">
-        <v>19.43337371776051</v>
+        <v>19.26737539150028</v>
       </c>
       <c r="F112">
-        <v>19.56754637295071</v>
+        <v>19.56785091164877</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>19.49255770154512</v>
+        <v>19.5054861069551</v>
       </c>
       <c r="C113">
-        <v>19.51356584020845</v>
+        <v>19.38295407247166</v>
       </c>
       <c r="D113">
-        <v>19.4496821736754</v>
+        <v>19.53495101918343</v>
       </c>
       <c r="E113">
-        <v>19.40215836072312</v>
+        <v>19.23777989743888</v>
       </c>
       <c r="F113">
-        <v>19.53645100301878</v>
+        <v>19.5368056666268</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>19.46006615316643</v>
+        <v>19.47288339191982</v>
       </c>
       <c r="C114">
-        <v>19.48076396852329</v>
+        <v>19.3506687270442</v>
       </c>
       <c r="D114">
-        <v>19.41612101900227</v>
+        <v>19.50225603334418</v>
       </c>
       <c r="E114">
-        <v>19.36931774642775</v>
+        <v>19.20658099878906</v>
       </c>
       <c r="F114">
-        <v>19.50369691484656</v>
+        <v>19.50409898261195</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>19.42599558429777</v>
+        <v>19.43870426513172</v>
       </c>
       <c r="C115">
-        <v>19.44639471635735</v>
+        <v>19.31681991978261</v>
       </c>
       <c r="D115">
-        <v>19.38105226783635</v>
+        <v>19.46798369079742</v>
       </c>
       <c r="E115">
-        <v>19.33493416253795</v>
+        <v>19.17385725175076</v>
       </c>
       <c r="F115">
-        <v>19.46936812869064</v>
+        <v>19.46981500831462</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>19.39042603781314</v>
+        <v>19.40302867694008</v>
       </c>
       <c r="C116">
-        <v>19.41053764742842</v>
+        <v>19.2814868643882</v>
       </c>
       <c r="D116">
-        <v>19.34455240674354</v>
+        <v>19.43221401864702</v>
       </c>
       <c r="E116">
-        <v>19.29908592723186</v>
+        <v>19.13968356051009</v>
       </c>
       <c r="F116">
-        <v>19.43354456004696</v>
+        <v>19.43403379598134</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>19.35343364018895</v>
+        <v>19.36593270464496</v>
       </c>
       <c r="C117">
-        <v>19.37326845266893</v>
+        <v>19.24474486233133</v>
       </c>
       <c r="D117">
-        <v>19.30669421181201</v>
+        <v>19.39502314779971</v>
       </c>
       <c r="E117">
-        <v>19.26184752117232</v>
+        <v>19.10413131222371</v>
       </c>
       <c r="F117">
-        <v>19.39630225302369</v>
+        <v>19.39683149001894</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.31509085099259</v>
+        <v>19.32748871332547</v>
       </c>
       <c r="C118">
-        <v>19.3346591166947</v>
+        <v>19.20666565191998</v>
       </c>
       <c r="D118">
-        <v>19.26754692610976</v>
+        <v>19.35648350997489</v>
       </c>
       <c r="E118">
-        <v>19.22328982192822</v>
+        <v>19.06726854599028</v>
       </c>
       <c r="F118">
-        <v>19.35771352808475</v>
+        <v>19.3582805311951</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>19.27546658201698</v>
+        <v>19.28776554144329</v>
       </c>
       <c r="C119">
-        <v>19.29477814546992</v>
+        <v>19.16731740576706</v>
       </c>
       <c r="D119">
-        <v>19.22717644250831</v>
+        <v>19.31666400293736</v>
       </c>
       <c r="E119">
-        <v>19.18348025435924</v>
+        <v>19.02916011904367</v>
       </c>
       <c r="F119">
-        <v>19.31784718178358</v>
+        <v>19.31844983054867</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>19.23462641136362</v>
+        <v>19.24682869160168</v>
       </c>
       <c r="C120">
-        <v>19.25369067607259</v>
+        <v>19.12676505514054</v>
       </c>
       <c r="D120">
-        <v>19.18564542395035</v>
+        <v>19.27563016547045</v>
       </c>
       <c r="E120">
-        <v>19.14248294737162</v>
+        <v>18.98986781481469</v>
       </c>
       <c r="F120">
-        <v>19.27676866837837</v>
+        <v>19.27740493294455</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>19.19263272357268</v>
+        <v>19.20474045911902</v>
       </c>
       <c r="C121">
-        <v>19.21145868645569</v>
+        <v>19.08507031388395</v>
       </c>
       <c r="D121">
-        <v>19.14301351943249</v>
+        <v>19.23344434672007</v>
       </c>
       <c r="E121">
-        <v>19.10035893292109</v>
+        <v>18.94945054036116</v>
       </c>
       <c r="F121">
-        <v>19.23454023427681</v>
+        <v>19.23520819318926</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>19.14954485405857</v>
+        <v>19.16156011106141</v>
       </c>
       <c r="C122">
-        <v>19.16814112709703</v>
+        <v>19.04229194097085</v>
       </c>
       <c r="D122">
-        <v>19.09933744310391</v>
+        <v>19.19016584995408</v>
       </c>
       <c r="E122">
-        <v>19.0571662414234</v>
+        <v>18.90796440493622</v>
       </c>
       <c r="F122">
-        <v>19.19122110225787</v>
+        <v>19.19191892483139</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.10541927655981</v>
+        <v>19.11734402934048</v>
       </c>
       <c r="C123">
-        <v>19.12379406234032</v>
+        <v>18.99848581015584</v>
       </c>
       <c r="D123">
-        <v>19.05467119480823</v>
+        <v>19.14585106997312</v>
       </c>
       <c r="E123">
-        <v>19.01296009488772</v>
+        <v>18.8654629012955</v>
       </c>
       <c r="F123">
-        <v>19.14686760310195</v>
+        <v>19.14759354212731</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.06030968309644</v>
+        <v>19.07214583761546</v>
       </c>
       <c r="C124">
-        <v>19.07847084260322</v>
+        <v>18.95370509994193</v>
       </c>
       <c r="D124">
-        <v>19.0090660985052</v>
+        <v>19.10055369640399</v>
       </c>
       <c r="E124">
-        <v>18.96779301349743</v>
+        <v>18.82199697630074</v>
       </c>
       <c r="F124">
-        <v>19.1015333113421</v>
+        <v>19.10228571248911</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19.01426717475334</v>
+        <v>19.02601655528473</v>
       </c>
       <c r="C125">
-        <v>19.03222219421398</v>
+        <v>18.90800038347809</v>
       </c>
       <c r="D125">
-        <v>18.96257103123445</v>
+        <v>19.05432472593739</v>
       </c>
       <c r="E125">
-        <v>18.92171495139011</v>
+        <v>18.77761519448771</v>
       </c>
       <c r="F125">
-        <v>19.05526920179765</v>
+        <v>19.0560464842164</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>18.96734034382975</v>
+        <v>18.97900470840739</v>
       </c>
       <c r="C126">
-        <v>18.9850963824233</v>
+        <v>18.86141978509734</v>
       </c>
       <c r="D126">
-        <v>18.91523244193334</v>
+        <v>19.00721280191008</v>
       </c>
       <c r="E126">
-        <v>18.87477344379972</v>
+        <v>18.73236381511533</v>
       </c>
       <c r="F126">
-        <v>19.00812374959463</v>
+        <v>19.00892440980732</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>18.91957542121678</v>
+        <v>18.93115645102117</v>
       </c>
       <c r="C127">
-        <v>18.93713931219901</v>
+        <v>18.81400908174718</v>
       </c>
       <c r="D127">
-        <v>18.86709456190092</v>
+        <v>18.95926403030574</v>
       </c>
       <c r="E127">
-        <v>18.8270136872476</v>
+        <v>18.68628691685046</v>
       </c>
       <c r="F127">
-        <v>18.9601430648516</v>
+        <v>18.96096566197814</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>18.87101638756724</v>
+        <v>18.88251569594446</v>
       </c>
       <c r="C128">
-        <v>18.88839463937351</v>
+        <v>18.7658118138071</v>
       </c>
       <c r="D128">
-        <v>18.81819942523194</v>
+        <v>18.91052242410857</v>
       </c>
       <c r="E128">
-        <v>18.77847868989701</v>
+        <v>18.63942650231408</v>
       </c>
       <c r="F128">
-        <v>18.91137101506661</v>
+        <v>18.91221417095979</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>18.82170506485146</v>
+        <v>18.83312420459549</v>
       </c>
       <c r="C129">
-        <v>18.83890390556393</v>
+        <v>18.71686941446357</v>
       </c>
       <c r="D129">
-        <v>18.76858705191249</v>
+        <v>18.86102975021595</v>
       </c>
       <c r="E129">
-        <v>18.72920935117178</v>
+        <v>18.59182257348091</v>
       </c>
       <c r="F129">
-        <v>18.86184931483126</v>
+        <v>18.86271172588907</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>18.77168125546463</v>
+        <v>18.7830216996353</v>
       </c>
       <c r="C130">
-        <v>18.78870660625121</v>
+        <v>18.66722127167485</v>
       </c>
       <c r="D130">
-        <v>18.71829548134848</v>
+        <v>18.81082575652484</v>
       </c>
       <c r="E130">
-        <v>18.67924457328953</v>
+        <v>18.54351326481437</v>
       </c>
       <c r="F130">
-        <v>18.81161765066133</v>
+        <v>18.81249805474587</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>18.72098280006178</v>
+        <v>18.73224597311188</v>
       </c>
       <c r="C131">
-        <v>18.73784032056303</v>
+        <v>18.61690488496424</v>
       </c>
       <c r="D131">
-        <v>18.66736092097041</v>
+        <v>18.75994826806687</v>
       </c>
       <c r="E131">
-        <v>18.62862136939377</v>
+        <v>18.49453488311838</v>
       </c>
       <c r="F131">
-        <v>18.76071376853536</v>
+        <v>18.76161102719484</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>18.66964570717813</v>
+        <v>18.68083296258176</v>
       </c>
       <c r="C132">
-        <v>18.68634078778472</v>
+        <v>18.56595589163467</v>
       </c>
       <c r="D132">
-        <v>18.61581779463688</v>
+        <v>18.70843321756114</v>
       </c>
       <c r="E132">
-        <v>18.57737493133556</v>
+        <v>18.44492204054364</v>
       </c>
       <c r="F132">
-        <v>18.70917356590212</v>
+        <v>18.71008652930834</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>18.61770422043477</v>
+        <v>18.62881685608192</v>
       </c>
       <c r="C133">
-        <v>18.63424199597467</v>
+        <v>18.5144082229704</v>
       </c>
       <c r="D133">
-        <v>18.56369885961953</v>
+        <v>18.65631483038574</v>
       </c>
       <c r="E133">
-        <v>18.52553874594068</v>
+        <v>18.39470769162022</v>
       </c>
       <c r="F133">
-        <v>18.65703119660727</v>
+        <v>18.65795885690615</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>18.56519090916344</v>
+        <v>18.5762301696152</v>
       </c>
       <c r="C134">
-        <v>18.58157628647878</v>
+        <v>18.46229412487235</v>
       </c>
       <c r="D134">
-        <v>18.51103526773676</v>
+        <v>18.60362560618001</v>
       </c>
       <c r="E134">
-        <v>18.47314465554709</v>
+        <v>18.34392324657266</v>
       </c>
       <c r="F134">
-        <v>18.60431913811665</v>
+        <v>18.60526046731099</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>18.51213676321375</v>
+        <v>18.52310381131091</v>
       </c>
       <c r="C135">
-        <v>18.52837440620098</v>
+        <v>18.40964429811268</v>
       </c>
       <c r="D135">
-        <v>18.45785665243977</v>
+        <v>18.55039651575629</v>
       </c>
       <c r="E135">
-        <v>18.42022294890146</v>
+        <v>18.29259861772287</v>
       </c>
       <c r="F135">
-        <v>18.55106828202285</v>
+        <v>18.55202235592347</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.45857124484181</v>
+        <v>18.4694672200855</v>
       </c>
       <c r="C136">
-        <v>18.47466561030923</v>
+        <v>18.35648791955351</v>
       </c>
       <c r="D136">
-        <v>18.40419120424124</v>
+        <v>18.49665696469894</v>
       </c>
       <c r="E136">
-        <v>18.36680244062832</v>
+        <v>18.24076230531234</v>
       </c>
       <c r="F136">
-        <v>18.49730801202966</v>
+        <v>18.49827393455358</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>18.40452239141019</v>
+        <v>18.41534834433656</v>
       </c>
       <c r="C137">
-        <v>18.42047771947783</v>
+        <v>18.30285276385418</v>
       </c>
       <c r="D137">
-        <v>18.35006572764344</v>
+        <v>18.44243499200872</v>
       </c>
       <c r="E137">
-        <v>18.31291052753827</v>
+        <v>18.18844146179451</v>
       </c>
       <c r="F137">
-        <v>18.44306625617518</v>
+        <v>18.44404318576836</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>18.35001685961527</v>
+        <v>18.36077382433782</v>
       </c>
       <c r="C138">
-        <v>18.36583719122802</v>
+        <v>18.24876523101996</v>
       </c>
       <c r="D138">
-        <v>18.2955057330182</v>
+        <v>18.38775718920784</v>
       </c>
       <c r="E138">
-        <v>18.25857327870048</v>
+        <v>18.13566194330851</v>
       </c>
       <c r="F138">
-        <v>18.38836961948498</v>
+        <v>18.38935674176796</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>18.29508000974089</v>
+        <v>18.30576899781779</v>
       </c>
       <c r="C139">
-        <v>18.31076919977516</v>
+        <v>18.19425044571581</v>
       </c>
       <c r="D139">
-        <v>18.2405354644211</v>
+        <v>18.33264892563871</v>
       </c>
       <c r="E139">
-        <v>18.20381548042795</v>
+        <v>18.08244839640011</v>
       </c>
       <c r="F139">
-        <v>18.33324334537238</v>
+        <v>18.3342398974614</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>18.23973596297665</v>
+        <v>18.25035789246726</v>
       </c>
       <c r="C140">
-        <v>18.2552976775954</v>
+        <v>18.13933229569789</v>
       </c>
       <c r="D140">
-        <v>18.18517800477219</v>
+        <v>18.27713427230848</v>
       </c>
       <c r="E140">
-        <v>18.14866071071043</v>
+        <v>18.02882428246578</v>
       </c>
       <c r="F140">
-        <v>18.2777115165059</v>
+        <v>18.27871675928015</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>18.18400765485261</v>
+        <v>18.1945634832065</v>
       </c>
       <c r="C141">
-        <v>18.19944538683362</v>
+        <v>18.08403350658653</v>
       </c>
       <c r="D141">
-        <v>18.12945528556123</v>
+        <v>18.22123613997773</v>
       </c>
       <c r="E141">
-        <v>18.0931313954263</v>
+        <v>17.97481196621884</v>
       </c>
       <c r="F141">
-        <v>18.22179702317369</v>
+        <v>18.2228102086598</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>18.12791691091399</v>
+        <v>18.13840748021811</v>
       </c>
       <c r="C142">
-        <v>18.1432339707856</v>
+        <v>18.02837569346639</v>
       </c>
       <c r="D142">
-        <v>18.07338818862388</v>
+        <v>18.16497632117276</v>
       </c>
       <c r="E142">
-        <v>18.03724884291321</v>
+        <v>17.92043273800452</v>
       </c>
       <c r="F142">
-        <v>18.16552157168686</v>
+        <v>18.16654207203143</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>18.071484478298</v>
+        <v>18.08191064530402</v>
       </c>
       <c r="C143">
-        <v>18.08668404598107</v>
+        <v>17.97237941017523</v>
       </c>
       <c r="D143">
-        <v>18.01699655434922</v>
+        <v>18.10837552418216</v>
       </c>
       <c r="E143">
-        <v>17.98103335359699</v>
+        <v>17.8657068893992</v>
       </c>
       <c r="F143">
-        <v>18.10890592690679</v>
+        <v>18.10993303948072</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>18.01473009832628</v>
+        <v>18.02509266584063</v>
       </c>
       <c r="C144">
-        <v>18.02981515461101</v>
+        <v>17.9160642156432</v>
       </c>
       <c r="D144">
-        <v>17.96029927235747</v>
+        <v>18.05145346782093</v>
       </c>
       <c r="E144">
-        <v>17.92450421028954</v>
+        <v>17.81065374117935</v>
       </c>
       <c r="F144">
-        <v>18.05196969590498</v>
+        <v>18.05300285278754</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>17.95767254177333</v>
+        <v>17.96797226460448</v>
       </c>
       <c r="C145">
-        <v>17.97264597963872</v>
+        <v>17.85944869828116</v>
       </c>
       <c r="D145">
-        <v>17.90331429100902</v>
+        <v>17.99422888892293</v>
       </c>
       <c r="E145">
-        <v>17.86767975512656</v>
+        <v>17.7552917015906</v>
       </c>
       <c r="F145">
-        <v>17.99473163907618</v>
+        <v>17.99577024983543</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>17.9003296479073</v>
+        <v>17.91056727670952</v>
       </c>
       <c r="C146">
-        <v>17.91519423367562</v>
+        <v>17.80255055460587</v>
       </c>
       <c r="D146">
-        <v>17.84605869641766</v>
+        <v>17.93671963702477</v>
       </c>
       <c r="E146">
-        <v>17.81057749765926</v>
+        <v>17.69963830498067</v>
       </c>
       <c r="F146">
-        <v>17.93720954658432</v>
+        <v>17.93825304623277</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>17.84271840015838</v>
+        <v>17.85289461873085</v>
       </c>
       <c r="C147">
-        <v>17.8574767407382</v>
+        <v>17.74538659821267</v>
       </c>
       <c r="D147">
-        <v>17.78854872514501</v>
+        <v>17.87894264511519</v>
       </c>
       <c r="E147">
-        <v>17.75321395962585</v>
+        <v>17.64371024869252</v>
       </c>
       <c r="F147">
-        <v>17.87942032563252</v>
+        <v>17.88046820712727</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>17.78485495890636</v>
+        <v>17.79497043150007</v>
       </c>
       <c r="C148">
-        <v>17.79950959106497</v>
+        <v>17.68797283615627</v>
       </c>
       <c r="D148">
-        <v>17.7307998306838</v>
+        <v>17.8209140675432</v>
       </c>
       <c r="E148">
-        <v>17.6956049911602</v>
+        <v>17.58752344564749</v>
       </c>
       <c r="F148">
-        <v>17.82138009397754</v>
+        <v>17.82243183520891</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>17.72675464791475</v>
+        <v>17.73681002213433</v>
       </c>
       <c r="C149">
-        <v>17.74130795990115</v>
+        <v>17.63032447750377</v>
       </c>
       <c r="D149">
-        <v>17.67282670091978</v>
+        <v>17.76264922081821</v>
       </c>
       <c r="E149">
-        <v>17.63776560346259</v>
+        <v>17.53109304290999</v>
       </c>
       <c r="F149">
-        <v>17.76310412813689</v>
+        <v>17.76415927630112</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>17.66843212806657</v>
+        <v>17.6784279889911</v>
       </c>
       <c r="C150">
-        <v>17.68288638506305</v>
+        <v>17.57245600003759</v>
       </c>
       <c r="D150">
-        <v>17.61464331160568</v>
+        <v>17.704162712406</v>
       </c>
       <c r="E150">
-        <v>17.57971004246267</v>
+        <v>17.47443347476441</v>
       </c>
       <c r="F150">
-        <v>17.70460700857462</v>
+        <v>17.70566510030798</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>17.60990127063942</v>
+        <v>17.61983820196816</v>
       </c>
       <c r="C151">
-        <v>17.62425864648562</v>
+        <v>17.51438116126686</v>
       </c>
       <c r="D151">
-        <v>17.55626294956345</v>
+        <v>17.64546840431561</v>
       </c>
       <c r="E151">
-        <v>17.52145192722725</v>
+        <v>17.41755847143324</v>
       </c>
       <c r="F151">
-        <v>17.64590256970562</v>
+        <v>17.64696319717318</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>17.55117527633233</v>
+        <v>17.56105382895296</v>
       </c>
       <c r="C152">
-        <v>17.56543783122732</v>
+        <v>17.45611305475303</v>
       </c>
       <c r="D152">
-        <v>17.49769825303907</v>
+        <v>17.58657949295216</v>
       </c>
       <c r="E152">
-        <v>17.46300412763366</v>
+        <v>17.3604811403925</v>
       </c>
       <c r="F152">
-        <v>17.58700398635272</v>
+        <v>17.58806673766999</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>17.49226676549443</v>
+        <v>17.50208743849232</v>
       </c>
       <c r="C153">
-        <v>17.50643642813161</v>
+        <v>17.3976641248901</v>
       </c>
       <c r="D153">
-        <v>17.43896124135882</v>
+        <v>17.52750852537617</v>
       </c>
       <c r="E153">
-        <v>17.40437894477146</v>
+        <v>17.30321394298319</v>
       </c>
       <c r="F153">
-        <v>17.52792379989123</v>
+        <v>17.52898827926385</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.43318762277474</v>
+        <v>17.44295092976722</v>
       </c>
       <c r="C154">
-        <v>17.44726625913923</v>
+        <v>17.33904621222408</v>
       </c>
       <c r="D154">
-        <v>17.38006334212814</v>
+        <v>17.46826742775578</v>
       </c>
       <c r="E154">
-        <v>17.34558805182098</v>
+        <v>17.24576874681501</v>
       </c>
       <c r="F154">
-        <v>17.4686738925261</v>
+        <v>17.46973975205265</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>17.37394925136953</v>
+        <v>17.3836556664054</v>
       </c>
       <c r="C155">
-        <v>17.38793861507149</v>
+        <v>17.28027057332859</v>
       </c>
       <c r="D155">
-        <v>17.32101542802596</v>
+        <v>17.40886755294029</v>
       </c>
       <c r="E155">
-        <v>17.28664253406107</v>
+        <v>17.18815691508876</v>
       </c>
       <c r="F155">
-        <v>17.40926562261337</v>
+        <v>17.41033249573332</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>17.31456245692266</v>
+        <v>17.32421242273599</v>
       </c>
       <c r="C156">
-        <v>17.32846421547123</v>
+        <v>17.22134791442949</v>
       </c>
       <c r="D156">
-        <v>17.26182783082427</v>
+        <v>17.34931968130273</v>
       </c>
       <c r="E156">
-        <v>17.22755297218296</v>
+        <v>17.13038917059204</v>
       </c>
       <c r="F156">
-        <v>17.34970973884253</v>
+        <v>17.35077731038808</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>17.25503748864133</v>
+        <v>17.26463145253619</v>
       </c>
       <c r="C157">
-        <v>17.26885324702305</v>
+        <v>17.1622884176668</v>
       </c>
       <c r="D157">
-        <v>17.20251038443843</v>
+        <v>17.28963408428413</v>
       </c>
       <c r="E157">
-        <v>17.16832938417217</v>
+        <v>17.072475800077</v>
       </c>
       <c r="F157">
-        <v>17.29001649767202</v>
+        <v>17.29108444109485</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17.19538413959163</v>
+        <v>17.20492251576298</v>
       </c>
       <c r="C158">
-        <v>17.20911543422782</v>
+        <v>17.10310175102271</v>
       </c>
       <c r="D158">
-        <v>17.14307241836715</v>
+        <v>17.22982050739575</v>
       </c>
       <c r="E158">
-        <v>17.10898134228841</v>
+        <v>17.01442661328777</v>
       </c>
       <c r="F158">
-        <v>17.23019564248195</v>
+        <v>17.23126365673212</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>17.13561167696017</v>
+        <v>17.14509487152724</v>
       </c>
       <c r="C159">
-        <v>17.14925996213394</v>
+        <v>17.0437971237986</v>
       </c>
       <c r="D159">
-        <v>17.08352282931569</v>
+        <v>17.16988824211777</v>
       </c>
       <c r="E159">
-        <v>17.04951793333563</v>
+        <v>16.95625086019571</v>
       </c>
       <c r="F159">
-        <v>17.17025642073554</v>
+        <v>17.17132422016292</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>17.07572894068461</v>
+        <v>17.08515735376452</v>
       </c>
       <c r="C160">
-        <v>17.08929562350896</v>
+        <v>16.98438330601881</v>
       </c>
       <c r="D160">
-        <v>17.02387007840652</v>
+        <v>17.10984609907492</v>
       </c>
       <c r="E160">
-        <v>16.98994777166039</v>
+        <v>16.8979574419312</v>
       </c>
       <c r="F160">
-        <v>17.11020765502058</v>
+        <v>17.11127496341342</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>17.01574434042701</v>
+        <v>17.02511832893196</v>
       </c>
       <c r="C161">
-        <v>17.02923075716853</v>
+        <v>16.92486858301575</v>
       </c>
       <c r="D161">
-        <v>16.96412216898225</v>
+        <v>17.04970247918709</v>
       </c>
       <c r="E161">
-        <v>16.93027909686129</v>
+        <v>16.83955480283428</v>
       </c>
       <c r="F161">
-        <v>17.05005770118373</v>
+        <v>17.05112426553822</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>16.95566584709586</v>
+        <v>16.9649857831884</v>
       </c>
       <c r="C162">
-        <v>16.96907327661112</v>
+        <v>16.86526090711516</v>
       </c>
       <c r="D162">
-        <v>16.90428678202446</v>
+        <v>16.98946535297436</v>
       </c>
       <c r="E162">
-        <v>16.87051969588601</v>
+        <v>16.78105095493316</v>
       </c>
       <c r="F162">
-        <v>16.98981453468213</v>
+        <v>16.99088010603706</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>16.89550108143741</v>
+        <v>16.90476729605125</v>
       </c>
       <c r="C163">
-        <v>16.90883073997319</v>
+        <v>16.80556782980609</v>
       </c>
       <c r="D163">
-        <v>16.84437119586848</v>
+        <v>16.92914230979079</v>
       </c>
       <c r="E163">
-        <v>16.81067700552588</v>
+        <v>16.72245357305726</v>
       </c>
       <c r="F163">
-        <v>16.9294857228693</v>
+        <v>16.93055006939485</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>16.8352572585033</v>
+        <v>16.84447007017456</v>
       </c>
       <c r="C164">
-        <v>16.84851029169911</v>
+        <v>16.74579644808541</v>
       </c>
       <c r="D164">
-        <v>16.78438227178853</v>
+        <v>16.86874056183494</v>
       </c>
       <c r="E164">
-        <v>16.75075809019608</v>
+        <v>16.66376993582578</v>
       </c>
       <c r="F164">
-        <v>16.86907845977272</v>
+        <v>16.87014136198716</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>16.7749412392994</v>
+        <v>16.78410097154972</v>
       </c>
       <c r="C165">
-        <v>16.78811875855553</v>
+        <v>16.68595361788497</v>
       </c>
       <c r="D165">
-        <v>16.72432662913258</v>
+        <v>16.8082669645869</v>
       </c>
       <c r="E165">
-        <v>16.69076964571417</v>
+        <v>16.60500697692911</v>
       </c>
       <c r="F165">
-        <v>16.80859960183362</v>
+        <v>16.80966084781335</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>16.71455957626207</v>
+        <v>16.72366650309323</v>
       </c>
       <c r="C166">
-        <v>16.72766261901661</v>
+        <v>16.62604581920734</v>
       </c>
       <c r="D166">
-        <v>16.6642105115032</v>
+        <v>16.74772804215862</v>
       </c>
       <c r="E166">
-        <v>16.63071806779451</v>
+        <v>16.54617132202518</v>
       </c>
       <c r="F166">
-        <v>16.74805564241734</v>
+        <v>16.74911503669866</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>16.65411845450037</v>
+        <v>16.66317287379948</v>
       </c>
       <c r="C167">
-        <v>16.66714802245726</v>
+        <v>16.56607916217595</v>
       </c>
       <c r="D167">
-        <v>16.60403982738178</v>
+        <v>16.68712998855457</v>
       </c>
       <c r="E167">
-        <v>16.57060941130883</v>
+        <v>16.48726924700955</v>
       </c>
       <c r="F167">
-        <v>16.68745278355786</v>
+        <v>16.68851013686275</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>16.5936237940717</v>
+        <v>16.60262596657987</v>
       </c>
       <c r="C168">
-        <v>16.60658083819063</v>
+        <v>16.50605952857853</v>
       </c>
       <c r="D168">
-        <v>16.54382025313042</v>
+        <v>16.62647870370295</v>
       </c>
       <c r="E168">
-        <v>16.51044944835978</v>
+        <v>16.42830676109923</v>
       </c>
       <c r="F168">
-        <v>16.62679690089317</v>
+        <v>16.62785203115527</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>16.53308120806388</v>
+        <v>16.54203138454229</v>
       </c>
       <c r="C169">
-        <v>16.54596661765492</v>
+        <v>16.44599247440524</v>
       </c>
       <c r="D169">
-        <v>16.48355714423269</v>
+        <v>16.56577978445854</v>
       </c>
       <c r="E169">
-        <v>16.45024366761033</v>
+        <v>16.36928958505056</v>
       </c>
       <c r="F169">
-        <v>16.56609358897061</v>
+        <v>16.56714632998926</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>16.47249601851323</v>
+        <v>16.48139445543299</v>
       </c>
       <c r="C170">
-        <v>16.48531066383307</v>
+        <v>16.38588326735954</v>
       </c>
       <c r="D170">
-        <v>16.42325559254957</v>
+        <v>16.50503856498516</v>
       </c>
       <c r="E170">
-        <v>16.3899972698365</v>
+        <v>16.31022312654297</v>
       </c>
       <c r="F170">
-        <v>16.50534817122742</v>
+        <v>16.50639835492899</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>16.41187331021086</v>
+        <v>16.42072023352612</v>
       </c>
       <c r="C171">
-        <v>16.42461801047358</v>
+        <v>16.32573694881058</v>
       </c>
       <c r="D171">
-        <v>16.36292046312177</v>
+        <v>16.44426010279077</v>
       </c>
       <c r="E171">
-        <v>16.32971522400935</v>
+        <v>16.25111258235093</v>
       </c>
       <c r="F171">
-        <v>16.44456569299274</v>
+        <v>16.44561317040055</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>16.35121789347608</v>
+        <v>16.36001353962223</v>
       </c>
       <c r="C172">
-        <v>16.36389343167036</v>
+        <v>16.26555828468476</v>
       </c>
       <c r="D172">
-        <v>16.30255635024062</v>
+        <v>16.38344921861233</v>
       </c>
       <c r="E172">
-        <v>16.26940223313541</v>
+        <v>16.19196288104327</v>
       </c>
       <c r="F172">
-        <v>16.38375097041782</v>
+        <v>16.38479559125527</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>16.29053435491345</v>
+        <v>16.29927893790288</v>
       </c>
       <c r="C173">
-        <v>16.30314148788353</v>
+        <v>16.20535180948199</v>
       </c>
       <c r="D173">
-        <v>16.24216763674131</v>
+        <v>16.32261048442238</v>
       </c>
       <c r="E173">
-        <v>16.20906277822365</v>
+        <v>16.13277870119262</v>
       </c>
       <c r="F173">
-        <v>16.32290856177969</v>
+        <v>16.32395018932887</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>16.22982705692297</v>
+        <v>16.23852078395257</v>
       </c>
       <c r="C174">
-        <v>16.24236648933941</v>
+        <v>16.1451218522399</v>
       </c>
       <c r="D174">
-        <v>16.18175850018307</v>
+        <v>16.26174825366436</v>
       </c>
       <c r="E174">
-        <v>16.14870112380678</v>
+        <v>16.07356452464884</v>
       </c>
       <c r="F174">
-        <v>16.26204281514124</v>
+        <v>16.26308131897648</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>16.16910012785111</v>
+        <v>16.17774320849851</v>
       </c>
       <c r="C175">
-        <v>16.18157255215499</v>
+        <v>16.08487250365451</v>
       </c>
       <c r="D175">
-        <v>16.12133288344151</v>
+        <v>16.20086666085802</v>
       </c>
       <c r="E175">
-        <v>16.08832130525857</v>
+        <v>16.01432459452749</v>
       </c>
       <c r="F175">
-        <v>16.20115785867684</v>
+        <v>16.20219310868059</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>16.10835751521487</v>
+        <v>16.11695013820463</v>
       </c>
       <c r="C176">
-        <v>16.12076358420925</v>
+        <v>16.02460767139045</v>
       </c>
       <c r="D176">
-        <v>16.06089456437952</v>
+        <v>16.13996963584573</v>
       </c>
       <c r="E176">
-        <v>16.02792717981038</v>
+        <v>15.95506295641119</v>
       </c>
       <c r="F176">
-        <v>16.14025761042706</v>
+        <v>16.14128949440822</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>16.04760295695785</v>
+        <v>16.05614531216344</v>
       </c>
       <c r="C177">
-        <v>16.05994328950707</v>
+        <v>15.96433108068017</v>
       </c>
       <c r="D177">
-        <v>16.00044713455182</v>
+        <v>16.07906091655554</v>
       </c>
       <c r="E177">
-        <v>15.96752239851111</v>
+        <v>15.89578347281312</v>
       </c>
       <c r="F177">
-        <v>16.07934580682457</v>
+        <v>16.08037420498612</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>15.98684000575879</v>
+        <v>15.99533227240705</v>
       </c>
       <c r="C178">
-        <v>15.99911520509911</v>
+        <v>15.90404622646352</v>
       </c>
       <c r="D178">
-        <v>15.93999396733573</v>
+        <v>16.01814405095751</v>
       </c>
       <c r="E178">
-        <v>15.90711043553557</v>
+        <v>15.83648979722684</v>
       </c>
       <c r="F178">
-        <v>16.01842598334695</v>
+        <v>16.01945079537082</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>15.92607205173844</v>
+        <v>15.93451439891664</v>
       </c>
       <c r="C179">
-        <v>15.9382826757391</v>
+        <v>15.84375647652428</v>
       </c>
       <c r="D179">
-        <v>15.87953831343485</v>
+        <v>15.95722241478593</v>
       </c>
       <c r="E179">
-        <v>15.84669459895219</v>
+        <v>15.77718542932277</v>
       </c>
       <c r="F179">
-        <v>15.95750151500616</v>
+        <v>15.95852263720707</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>15.86530229407263</v>
+        <v>15.87369489128051</v>
       </c>
       <c r="C180">
-        <v>15.87744889169899</v>
+        <v>15.78346502219625</v>
       </c>
       <c r="D180">
-        <v>15.81908325078432</v>
+        <v>15.89629920363135</v>
       </c>
       <c r="E180">
-        <v>15.78627801827759</v>
+        <v>15.71787369513495</v>
       </c>
       <c r="F180">
-        <v>15.89657560107138</v>
+        <v>15.89759293690328</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15.80453379401353</v>
+        <v>15.81287679883122</v>
       </c>
       <c r="C181">
-        <v>15.81661688305858</v>
+        <v>15.72317487028069</v>
       </c>
       <c r="D181">
-        <v>15.75863168168628</v>
+        <v>15.83537747191905</v>
       </c>
       <c r="E181">
-        <v>15.72586368284536</v>
+        <v>15.65855774635277</v>
       </c>
       <c r="F181">
-        <v>15.83565128164361</v>
+        <v>15.83666474315487</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>15.74376945314217</v>
+        <v>15.75206301691731</v>
       </c>
       <c r="C182">
-        <v>15.75578952094799</v>
+        <v>15.66288890854986</v>
       </c>
       <c r="D182">
-        <v>15.69818639283491</v>
+        <v>15.77446012719796</v>
       </c>
       <c r="E182">
-        <v>15.66545442369543</v>
+        <v>15.59924060309952</v>
       </c>
       <c r="F182">
-        <v>15.77473145220637</v>
+        <v>15.77574094852478</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>15.68301202077261</v>
+        <v>15.69125629260559</v>
       </c>
       <c r="C183">
-        <v>15.69496954637314</v>
+        <v>15.60260987142267</v>
       </c>
       <c r="D183">
-        <v>15.63775002098912</v>
+        <v>15.71354988801569</v>
       </c>
       <c r="E183">
-        <v>15.60505293199298</v>
+        <v>15.53992512931284</v>
       </c>
       <c r="F183">
-        <v>15.71381885329071</v>
+        <v>15.71482430625388</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>15.62226412349219</v>
+        <v>15.6304592439649</v>
       </c>
       <c r="C184">
-        <v>15.63415955124248</v>
+        <v>15.54234034046098</v>
       </c>
       <c r="D184">
-        <v>15.57732505789091</v>
+        <v>15.65264939303774</v>
       </c>
       <c r="E184">
-        <v>15.54466177137464</v>
+        <v>15.48061404614843</v>
       </c>
       <c r="F184">
-        <v>15.65291610037477</v>
+        <v>15.65391741879629</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.56152824341091</v>
+        <v>15.56967434855698</v>
       </c>
       <c r="C185">
-        <v>15.5733620063208</v>
+        <v>15.48208279038925</v>
       </c>
       <c r="D185">
-        <v>15.51691389110337</v>
+        <v>15.5917611473076</v>
       </c>
       <c r="E185">
-        <v>15.48428336534295</v>
+        <v>15.42130995805081</v>
       </c>
       <c r="F185">
-        <v>15.59202566960636</v>
+        <v>15.59302277558219</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>15.50080674596582</v>
+        <v>15.50890396967413</v>
       </c>
       <c r="C186">
-        <v>15.51257925879318</v>
+        <v>15.42183956278146</v>
       </c>
       <c r="D186">
-        <v>15.4565187784182</v>
+        <v>15.53088749148191</v>
       </c>
       <c r="E186">
-        <v>15.42392002899458</v>
+        <v>15.36201532727818</v>
       </c>
       <c r="F186">
-        <v>15.53114991746835</v>
+        <v>15.53214274515323</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>15.4401018802421</v>
+        <v>15.44815034616104</v>
       </c>
       <c r="C187">
-        <v>15.45181353087537</v>
+        <v>15.36161287564346</v>
       </c>
       <c r="D187">
-        <v>15.39614186044676</v>
+        <v>15.47003065473479</v>
       </c>
       <c r="E187">
-        <v>15.36357395468189</v>
+        <v>15.30273250509711</v>
       </c>
       <c r="F187">
-        <v>15.47029108388131</v>
+        <v>15.47127954854287</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>15.37941577247678</v>
+        <v>15.38741560655891</v>
       </c>
       <c r="C188">
-        <v>15.39106694424598</v>
+        <v>15.30140485003647</v>
       </c>
       <c r="D188">
-        <v>15.33578518323592</v>
+        <v>15.40919279679765</v>
       </c>
       <c r="E188">
-        <v>15.30324722416655</v>
+        <v>15.24346373328972</v>
       </c>
       <c r="F188">
-        <v>15.40945129066782</v>
+        <v>15.41043532213162</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15.31875045444139</v>
+        <v>15.32670177253711</v>
       </c>
       <c r="C189">
-        <v>15.3303415045712</v>
+        <v>15.24121749033854</v>
       </c>
       <c r="D189">
-        <v>15.27545067888076</v>
+        <v>15.34837594707406</v>
       </c>
       <c r="E189">
-        <v>15.24294182156622</v>
+        <v>15.18421112931904</v>
       </c>
       <c r="F189">
-        <v>15.348632561527</v>
+        <v>15.34961210913337</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>15.25810784887804</v>
+        <v>15.26601075476849</v>
       </c>
       <c r="C190">
-        <v>15.26963912218521</v>
+        <v>15.18105269953161</v>
       </c>
       <c r="D190">
-        <v>15.21514018396715</v>
+        <v>15.2875819905501</v>
       </c>
       <c r="E190">
-        <v>15.18265962078227</v>
+        <v>15.12497672296717</v>
       </c>
       <c r="F190">
-        <v>15.28783680959141</v>
+        <v>15.28881183270908</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>15.19748978130146</v>
+        <v>15.2053443829131</v>
       </c>
       <c r="C191">
-        <v>15.20896161204754</v>
+        <v>15.12091229616698</v>
       </c>
       <c r="D191">
-        <v>15.15485545233988</v>
+        <v>15.2268127760636</v>
       </c>
       <c r="E191">
-        <v>15.12240241147217</v>
+        <v>15.06576244042133</v>
       </c>
       <c r="F191">
-        <v>15.22706585906899</v>
+        <v>15.22803628053332</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>15.13689799240067</v>
+        <v>15.14470439712076</v>
       </c>
       <c r="C192">
-        <v>15.14831069137383</v>
+        <v>15.06079799416841</v>
       </c>
       <c r="D192">
-        <v>15.0945981356763</v>
+        <v>15.16607004489144</v>
       </c>
       <c r="E192">
-        <v>15.06217188837239</v>
+        <v>15.00657010653221</v>
       </c>
       <c r="F192">
-        <v>15.16632143592834</v>
+        <v>15.16728721767871</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>15.07633412376027</v>
+        <v>15.08409242341019</v>
       </c>
       <c r="C193">
-        <v>15.08768799895875</v>
+        <v>15.00071142710051</v>
       </c>
       <c r="D193">
-        <v>15.03436981042832</v>
+        <v>15.10535541447909</v>
       </c>
       <c r="E193">
-        <v>15.00196965892376</v>
+        <v>14.9474014682486</v>
       </c>
       <c r="F193">
-        <v>15.10560517570176</v>
+        <v>15.10656630654588</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>15.01579974445827</v>
+        <v>15.02351002808548</v>
       </c>
       <c r="C194">
-        <v>15.02709508389704</v>
+        <v>14.94065415241297</v>
       </c>
       <c r="D194">
-        <v>14.974171978233</v>
+        <v>15.04467045556904</v>
       </c>
       <c r="E194">
-        <v>14.94179725528848</v>
+        <v>14.88825818016442</v>
       </c>
       <c r="F194">
-        <v>15.04491864323873</v>
+        <v>15.04587506881206</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.95529634061595</v>
+        <v>14.96295871176303</v>
       </c>
       <c r="C195">
-        <v>14.96653342020206</v>
+        <v>14.88062763325837</v>
       </c>
       <c r="D195">
-        <v>14.91400604873256</v>
+        <v>14.98401665265582</v>
       </c>
       <c r="E195">
-        <v>14.88165612366689</v>
+        <v>14.82914181505171</v>
       </c>
       <c r="F195">
-        <v>14.98426332719663</v>
+        <v>14.9852150048109</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>14.89482531869589</v>
+        <v>14.90243989294135</v>
       </c>
       <c r="C196">
-        <v>14.90600440649532</v>
+        <v>14.82063327159515</v>
       </c>
       <c r="D196">
-        <v>14.85387337461163</v>
+        <v>14.92339541038641</v>
       </c>
       <c r="E196">
-        <v>14.82154764443142</v>
+        <v>14.77005387546968</v>
       </c>
       <c r="F196">
-        <v>14.92364060977216</v>
+        <v>14.92458753007951</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>14.83438802134904</v>
+        <v>14.84195486126281</v>
       </c>
       <c r="C197">
-        <v>14.84550936079482</v>
+        <v>14.76067239779263</v>
       </c>
       <c r="D197">
-        <v>14.79377523794351</v>
+        <v>14.86280806410756</v>
       </c>
       <c r="E197">
-        <v>14.76147312142733</v>
+        <v>14.71099578050337</v>
       </c>
       <c r="F197">
-        <v>14.86305183599839</v>
+        <v>14.86399397468543</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.77398571585829</v>
+        <v>14.78150491654363</v>
       </c>
       <c r="C198">
-        <v>14.78504954780425</v>
+        <v>14.70074626264586</v>
       </c>
       <c r="D198">
-        <v>14.73371284428327</v>
+        <v>14.80225589052033</v>
       </c>
       <c r="E198">
-        <v>14.70143378878627</v>
+        <v>14.65196888620386</v>
       </c>
       <c r="F198">
-        <v>14.80249828719676</v>
+        <v>14.80343559128301</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.71361960836788</v>
+        <v>14.72109127452031</v>
       </c>
       <c r="C199">
-        <v>14.72462616875506</v>
+        <v>14.64085606577123</v>
       </c>
       <c r="D199">
-        <v>14.67368734995088</v>
+        <v>14.74174009653447</v>
       </c>
       <c r="E199">
-        <v>14.64143082854826</v>
+        <v>14.59297448239923</v>
       </c>
       <c r="F199">
-        <v>14.74198117408423</v>
+        <v>14.74291359073623</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.65329084468738</v>
+        <v>14.66071506355742</v>
       </c>
       <c r="C200">
-        <v>14.66424035138812</v>
+        <v>14.58100294222568</v>
       </c>
       <c r="D200">
-        <v>14.61369984875385</v>
+        <v>14.68126180242739</v>
       </c>
       <c r="E200">
-        <v>14.58146536419079</v>
+        <v>14.53401378710403</v>
       </c>
       <c r="F200">
-        <v>14.68150159241333</v>
+        <v>14.68242911561127</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>14.59300050613818</v>
+        <v>14.60037735307846</v>
       </c>
       <c r="C201">
-        <v>14.60389316167971</v>
+        <v>14.52118796138796</v>
       </c>
       <c r="D201">
-        <v>14.55375137107915</v>
+        <v>14.62082210545418</v>
       </c>
       <c r="E201">
-        <v>14.52153844134496</v>
+        <v>14.47508796696311</v>
       </c>
       <c r="F201">
-        <v>14.62106065433697</v>
+        <v>14.62198324192063</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.53274962493281</v>
+        <v>14.54007918559656</v>
       </c>
       <c r="C202">
-        <v>14.54358563815026</v>
+        <v>14.46141214733568</v>
       </c>
       <c r="D202">
-        <v>14.4938429037016</v>
+        <v>14.56042203902679</v>
       </c>
       <c r="E202">
-        <v>14.46165106488907</v>
+        <v>14.4161981273211</v>
       </c>
       <c r="F202">
-        <v>14.5606593971838</v>
+        <v>14.56157700362141</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.47253917646544</v>
+        <v>14.47982154111216</v>
       </c>
       <c r="C203">
-        <v>14.48331876452114</v>
+        <v>14.40167646770895</v>
       </c>
       <c r="D203">
-        <v>14.43397537882033</v>
+        <v>14.50006256535488</v>
       </c>
       <c r="E203">
-        <v>14.4018042034853</v>
+        <v>14.35734531474813</v>
       </c>
       <c r="F203">
-        <v>14.50029878427561</v>
+        <v>14.50121138231402</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.41237008514451</v>
+        <v>14.41960531826881</v>
       </c>
       <c r="C204">
-        <v>14.42309343157287</v>
+        <v>14.34198183580456</v>
       </c>
       <c r="D204">
-        <v>14.37414967608481</v>
+        <v>14.43974461581232</v>
       </c>
       <c r="E204">
-        <v>14.34199877745604</v>
+        <v>14.29853053014383</v>
       </c>
       <c r="F204">
-        <v>14.43997972096367</v>
+        <v>14.44088729306937</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>14.35224323125527</v>
+        <v>14.3594314023046</v>
       </c>
       <c r="C205">
-        <v>14.36291050930958</v>
+        <v>14.28232912498169</v>
       </c>
       <c r="D205">
-        <v>14.31436663672004</v>
+        <v>14.37946907272696</v>
       </c>
       <c r="E205">
-        <v>14.28223560269558</v>
+        <v>14.23975471941836</v>
       </c>
       <c r="F205">
-        <v>14.37970309765904</v>
+        <v>14.38060560433543</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>14.29215944340522</v>
+        <v>14.29930062329406</v>
       </c>
       <c r="C206">
-        <v>14.30277084123928</v>
+        <v>14.22271915886489</v>
       </c>
       <c r="D206">
-        <v>14.25462705393216</v>
+        <v>14.31923676204132</v>
       </c>
       <c r="E206">
-        <v>14.22251550900582</v>
+        <v>14.18101878164011</v>
       </c>
       <c r="F206">
-        <v>14.31946974866068</v>
+        <v>14.32036715644953</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>14.23211951226082</v>
+        <v>14.23921376685709</v>
       </c>
       <c r="C207">
-        <v>14.24267522199401</v>
+        <v>14.16315271645795</v>
       </c>
       <c r="D207">
-        <v>14.19493167763329</v>
+        <v>14.25904846432354</v>
       </c>
       <c r="E207">
-        <v>14.16283927888609</v>
+        <v>14.12232357412061</v>
       </c>
       <c r="F207">
-        <v>14.25928044058863</v>
+        <v>14.26017273954098</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>14.17212418533653</v>
+        <v>14.17917157559825</v>
       </c>
       <c r="C208">
-        <v>14.18262435662783</v>
+        <v>14.10363054151412</v>
       </c>
       <c r="D208">
-        <v>14.13528122390317</v>
+        <v>14.19890493183674</v>
       </c>
       <c r="E208">
-        <v>14.10320765182204</v>
+        <v>14.06366989859921</v>
       </c>
       <c r="F208">
-        <v>14.19913592046447</v>
+        <v>14.20002308844669</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>14.11217416850477</v>
+        <v>14.11917476194174</v>
       </c>
       <c r="C209">
-        <v>14.12261896322505</v>
+        <v>14.04415333357746</v>
       </c>
       <c r="D209">
-        <v>14.07567636622144</v>
+        <v>14.13880687207959</v>
       </c>
       <c r="E209">
-        <v>14.043621282201</v>
+        <v>14.00505852826168</v>
       </c>
       <c r="F209">
-        <v>14.13903689532576</v>
+        <v>14.13991891844993</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>14.05227013438625</v>
+        <v>14.05922400224263</v>
       </c>
       <c r="C210">
-        <v>14.06265971133043</v>
+        <v>13.98472175639186</v>
       </c>
       <c r="D210">
-        <v>14.01611774311836</v>
+        <v>14.07875494743085</v>
       </c>
       <c r="E210">
-        <v>13.98408084452647</v>
+        <v>13.94649019678988</v>
       </c>
       <c r="F210">
-        <v>14.07898403312405</v>
+        <v>14.07986090389529</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.99241271638801</v>
+        <v>13.99931991314657</v>
       </c>
       <c r="C211">
-        <v>14.00274723256782</v>
+        <v>13.92533644191766</v>
       </c>
       <c r="D211">
-        <v>13.95660596273965</v>
+        <v>14.018749796173</v>
       </c>
       <c r="E211">
-        <v>13.92458696169062</v>
+        <v>13.88796560384504</v>
       </c>
       <c r="F211">
-        <v>14.01897796192352</v>
+        <v>14.0198496695501</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.93260251584137</v>
+        <v>13.93946309745181</v>
       </c>
       <c r="C212">
-        <v>13.94288210278041</v>
+        <v>13.86599798282328</v>
       </c>
       <c r="D212">
-        <v>13.89714159545669</v>
+        <v>13.95879202107632</v>
       </c>
       <c r="E212">
-        <v>13.865140220284</v>
+        <v>13.82948538950802</v>
       </c>
       <c r="F212">
-        <v>13.95901928588088</v>
+        <v>13.95988581403283</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.87284010279865</v>
+        <v>13.87965412886982</v>
       </c>
       <c r="C213">
-        <v>13.88306489410552</v>
+        <v>13.80670694381322</v>
       </c>
       <c r="D213">
-        <v>13.83772518406771</v>
+        <v>13.89888218148962</v>
       </c>
       <c r="E213">
-        <v>13.80574115778436</v>
+        <v>13.77105018576954</v>
       </c>
       <c r="F213">
-        <v>13.89910857757009</v>
+        <v>13.89996990938629</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.81312601354089</v>
+        <v>13.81989354649229</v>
       </c>
       <c r="C214">
-        <v>13.82329613990437</v>
+        <v>13.74746386017333</v>
       </c>
       <c r="D214">
-        <v>13.77835724359724</v>
+        <v>13.83902081715815</v>
       </c>
       <c r="E214">
-        <v>13.74639030691346</v>
+        <v>13.71266059472444</v>
       </c>
       <c r="F214">
-        <v>13.839246367578</v>
+        <v>13.84010249287657</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.75346075880196</v>
+        <v>13.76018184951282</v>
       </c>
       <c r="C215">
-        <v>13.76357634411527</v>
+        <v>13.68826922750034</v>
       </c>
       <c r="D215">
-        <v>13.71903825035074</v>
+        <v>13.77920843858488</v>
       </c>
       <c r="E215">
-        <v>13.68708816425332</v>
+        <v>13.65431718983645</v>
       </c>
       <c r="F215">
-        <v>13.77943315303249</v>
+        <v>13.78028406715457</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.69384481983955</v>
+        <v>13.70051952599113</v>
       </c>
       <c r="C216">
-        <v>13.70390598136063</v>
+        <v>13.62912352629024</v>
       </c>
       <c r="D216">
-        <v>13.65976866588866</v>
+        <v>13.71944552440967</v>
       </c>
       <c r="E216">
-        <v>13.62783519837861</v>
+        <v>13.59602047814634</v>
       </c>
       <c r="F216">
-        <v>13.71966942290313</v>
+        <v>13.72051511651332</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.634278651298</v>
+        <v>13.64090703439243</v>
       </c>
       <c r="C217">
-        <v>13.64428550758796</v>
+        <v>13.5700272095395</v>
       </c>
       <c r="D217">
-        <v>13.60054892548749</v>
+        <v>13.65973252608397</v>
       </c>
       <c r="E217">
-        <v>13.56863185133833</v>
+        <v>13.53777096475201</v>
       </c>
       <c r="F217">
-        <v>13.65995563427438</v>
+        <v>13.66079609752418</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.57476268489076</v>
+        <v>13.581344797986</v>
       </c>
       <c r="C218">
-        <v>13.58471535460385</v>
+        <v>13.51098070815217</v>
       </c>
       <c r="D218">
-        <v>13.54137944297549</v>
+        <v>13.60006987666065</v>
       </c>
       <c r="E218">
-        <v>13.50947854726668</v>
+        <v>13.4795691415825</v>
       </c>
       <c r="F218">
-        <v>13.60029220771663</v>
+        <v>13.60112743186861</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.51529732476447</v>
+        <v>13.52183321806882</v>
       </c>
       <c r="C219">
-        <v>13.52519591801004</v>
+        <v>13.45198441270648</v>
       </c>
       <c r="D219">
-        <v>13.48226059520753</v>
+        <v>13.54045798298055</v>
       </c>
       <c r="E219">
-        <v>13.45037568789158</v>
+        <v>13.42141546937114</v>
       </c>
       <c r="F219">
-        <v>13.54067955158917</v>
+        <v>13.54150952658225</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.45588295565099</v>
+        <v>13.46237268192179</v>
       </c>
       <c r="C220">
-        <v>13.46572757010246</v>
+        <v>13.39303870469253</v>
       </c>
       <c r="D220">
-        <v>13.42319274545183</v>
+        <v>13.48089722097029</v>
       </c>
       <c r="E220">
-        <v>13.39132363884454</v>
+        <v>13.36331036286406</v>
       </c>
       <c r="F220">
-        <v>13.48111805243686</v>
+        <v>13.48194276641822</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13.3965199397031</v>
+        <v>13.40296355207641</v>
       </c>
       <c r="C221">
-        <v>13.40631067789788</v>
+        <v>13.33414395269029</v>
       </c>
       <c r="D221">
-        <v>13.36417624842791</v>
+        <v>13.42138795630191</v>
       </c>
       <c r="E221">
-        <v>13.33232274711099</v>
+        <v>13.30525421963462</v>
       </c>
       <c r="F221">
-        <v>13.4216080730983</v>
+        <v>13.42242751180996</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.33720861750125</v>
+        <v>13.3436061634875</v>
       </c>
       <c r="C222">
-        <v>13.34694558292263</v>
+        <v>13.2753005043227</v>
       </c>
       <c r="D222">
-        <v>13.30521143749291</v>
+        <v>13.36193053183454</v>
       </c>
       <c r="E222">
-        <v>13.27337335321158</v>
+        <v>13.24724743364641</v>
       </c>
       <c r="F222">
-        <v>13.36214994112368</v>
+        <v>13.36296409988725</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.27794931201837</v>
+        <v>13.28430084068269</v>
       </c>
       <c r="C223">
-        <v>13.28763259858341</v>
+        <v>13.21650867221613</v>
       </c>
       <c r="D223">
-        <v>13.24629861661696</v>
+        <v>13.30252526439171</v>
       </c>
       <c r="E223">
-        <v>13.21447577404731</v>
+        <v>13.18929037030451</v>
       </c>
       <c r="F223">
-        <v>13.30274398391029</v>
+        <v>13.30355285542205</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.21874232612353</v>
+        <v>13.225047887982</v>
       </c>
       <c r="C224">
-        <v>13.22837202724454</v>
+        <v>13.15776873780518</v>
       </c>
       <c r="D224">
-        <v>13.18743804941738</v>
+        <v>13.243172458365</v>
       </c>
       <c r="E224">
-        <v>13.15563029962591</v>
+        <v>13.1313833666096</v>
       </c>
       <c r="F224">
-        <v>13.24339050460752</v>
+        <v>13.24419408370903</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.15958794585496</v>
+        <v>13.16584758901703</v>
       </c>
       <c r="C225">
-        <v>13.16916415650153</v>
+        <v>13.09908100308318</v>
       </c>
       <c r="D225">
-        <v>13.1286300274808</v>
+        <v>13.1838724009691</v>
       </c>
       <c r="E225">
-        <v>13.09683721049947</v>
+        <v>13.0735267376678</v>
       </c>
       <c r="F225">
-        <v>13.18408978643276</v>
+        <v>13.18488806227624</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.10048644104627</v>
+        <v>13.10670020739326</v>
       </c>
       <c r="C226">
-        <v>13.11000925720773</v>
+        <v>13.04044574063393</v>
       </c>
       <c r="D226">
-        <v>13.06987481174831</v>
+        <v>13.12462535961157</v>
       </c>
       <c r="E226">
-        <v>13.03809677298294</v>
+        <v>13.01572079405487</v>
       </c>
       <c r="F226">
-        <v>13.12484209507435</v>
+        <v>13.12563506362105</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.04143806380591</v>
+        <v>13.04760599886224</v>
       </c>
       <c r="C227">
-        <v>13.05090756589538</v>
+        <v>12.98186320525682</v>
       </c>
       <c r="D227">
-        <v>13.01117264935142</v>
+        <v>13.06543158441796</v>
       </c>
       <c r="E227">
-        <v>12.97940923784578</v>
+        <v>12.95796582424451</v>
       </c>
       <c r="F227">
-        <v>13.06564768505118</v>
+        <v>13.06643534164334</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.98244305313112</v>
+        <v>12.98856520210558</v>
       </c>
       <c r="C228">
-        <v>12.99185932506041</v>
+        <v>12.92333360755402</v>
       </c>
       <c r="D228">
-        <v>12.95252373739201</v>
+        <v>13.00629131507213</v>
       </c>
       <c r="E228">
-        <v>12.92077482303853</v>
+        <v>12.90026209975901</v>
       </c>
       <c r="F228">
-        <v>13.00650679515785</v>
+        <v>13.00728913238404</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.92350163252411</v>
+        <v>12.92957803597723</v>
       </c>
       <c r="C229">
-        <v>12.93286475655497</v>
+        <v>12.8648571840705</v>
       </c>
       <c r="D229">
-        <v>12.8939283035519</v>
+        <v>12.94720477519607</v>
       </c>
       <c r="E229">
-        <v>12.8621937526434</v>
+        <v>12.84260987575062</v>
       </c>
       <c r="F229">
-        <v>12.94741964155346</v>
+        <v>12.94819665683344</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.86461401144685</v>
+        <v>12.87064471120395</v>
       </c>
       <c r="C230">
-        <v>12.87392406837092</v>
+        <v>12.80643414444818</v>
       </c>
       <c r="D230">
-        <v>12.83538654805842</v>
+        <v>12.88817217075146</v>
       </c>
       <c r="E230">
-        <v>12.80366623142331</v>
+        <v>12.78500939753776</v>
       </c>
       <c r="F230">
-        <v>12.88838643422568</v>
+        <v>12.88915812672671</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.80578038756504</v>
+        <v>12.8117654260032</v>
       </c>
       <c r="C231">
-        <v>12.8150374517068</v>
+        <v>12.74806468643336</v>
       </c>
       <c r="D231">
-        <v>12.7768986596199</v>
+        <v>12.82919369999897</v>
       </c>
       <c r="E231">
-        <v>12.7451924512141</v>
+        <v>12.72746089665687</v>
       </c>
       <c r="F231">
-        <v>12.82940737043194</v>
+        <v>12.83017373937711</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.74700094495296</v>
+        <v>12.75294036474812</v>
       </c>
       <c r="C232">
-        <v>12.75620509139825</v>
+        <v>12.6897489802642</v>
       </c>
       <c r="D232">
-        <v>12.71846480359884</v>
+        <v>12.7702695478335</v>
       </c>
       <c r="E232">
-        <v>12.68677258781166</v>
+        <v>12.66996458745789</v>
       </c>
       <c r="F232">
-        <v>12.77048263412679</v>
+        <v>12.77124367416832</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.68827585634159</v>
+        <v>12.6941696942288</v>
       </c>
       <c r="C233">
-        <v>12.69742715947875</v>
+        <v>12.63148719947268</v>
       </c>
       <c r="D233">
-        <v>12.6600851411646</v>
+        <v>12.7113998837411</v>
       </c>
       <c r="E233">
-        <v>12.62840681128789</v>
+        <v>12.6125206573092</v>
       </c>
       <c r="F233">
-        <v>12.71161239299273</v>
+        <v>12.71236810554926</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.62960528303173</v>
+        <v>12.63545357876729</v>
       </c>
       <c r="C234">
-        <v>12.638703814377</v>
+        <v>12.57327950489313</v>
       </c>
       <c r="D234">
-        <v>12.6017598270073</v>
+        <v>12.65258486914208</v>
       </c>
       <c r="E234">
-        <v>12.57009527966568</v>
+        <v>12.55512930456359</v>
       </c>
       <c r="F234">
-        <v>12.65279681032197</v>
+        <v>12.65354719515923</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.57098937563554</v>
+        <v>12.57679216983416</v>
       </c>
       <c r="C235">
-        <v>12.58003520034137</v>
+        <v>12.51512604586707</v>
       </c>
       <c r="D235">
-        <v>12.54348900310202</v>
+        <v>12.59382465536921</v>
       </c>
       <c r="E235">
-        <v>12.51183813872273</v>
+        <v>12.49779070849156</v>
       </c>
       <c r="F235">
-        <v>12.59403603754157</v>
+        <v>12.59478109162724</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.51242827472926</v>
+        <v>12.5181856055798</v>
       </c>
       <c r="C236">
-        <v>12.52142145916668</v>
+        <v>12.45702696083208</v>
       </c>
       <c r="D236">
-        <v>12.48527280143602</v>
+        <v>12.5351193801265</v>
       </c>
       <c r="E236">
-        <v>12.45363551960951</v>
+        <v>12.44050503699449</v>
       </c>
       <c r="F236">
-        <v>12.53533021290274</v>
+        <v>12.53606993442457</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.45392211133142</v>
+        <v>12.45963401590434</v>
       </c>
       <c r="C237">
-        <v>12.46286272091802</v>
+        <v>12.39898237959019</v>
       </c>
       <c r="D237">
-        <v>12.4271113445091</v>
+        <v>12.47646917025787</v>
       </c>
       <c r="E237">
-        <v>12.39548755230466</v>
+        <v>12.38327244037992</v>
       </c>
       <c r="F237">
-        <v>12.47667946359194</v>
+        <v>12.47741385523929</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.39547100718432</v>
+        <v>12.40113752393611</v>
       </c>
       <c r="C238">
-        <v>12.40435910424262</v>
+        <v>12.34099242542711</v>
       </c>
       <c r="D238">
-        <v>12.36900474928393</v>
+        <v>12.41787414943985</v>
       </c>
       <c r="E238">
-        <v>12.33739435546224</v>
+        <v>12.32609306966876</v>
       </c>
       <c r="F238">
-        <v>12.41808391331027</v>
+        <v>12.41881297469641</v>
       </c>
     </row>
   </sheetData>
